--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.750550636366825</v>
+        <v>1.750550636366853</v>
       </c>
       <c r="C2">
-        <v>0.3650343723062406</v>
+        <v>0.3650343723062974</v>
       </c>
       <c r="D2">
-        <v>0.1526405374368807</v>
+        <v>0.1526405374366107</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.539827942929577</v>
+        <v>6.539827942929435</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3221058799046901</v>
+        <v>0.3221058799047043</v>
       </c>
       <c r="J2">
         <v>0.4668947066035614</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8545580214890833</v>
+        <v>0.8545580214890336</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.498239966856005</v>
+        <v>1.498239966855891</v>
       </c>
       <c r="C3">
-        <v>0.3114061421948122</v>
+        <v>0.3114061421944712</v>
       </c>
       <c r="D3">
-        <v>0.1353268633651226</v>
+        <v>0.1353268633649591</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0.2798004656215838</v>
       </c>
       <c r="J3">
-        <v>0.3988145753897214</v>
+        <v>0.3988145753897427</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7314764011368453</v>
+        <v>0.7314764011368382</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>1.347393988004967</v>
       </c>
       <c r="C4">
-        <v>0.2794023811983664</v>
+        <v>0.2794023811982811</v>
       </c>
       <c r="D4">
-        <v>0.1249444467495522</v>
+        <v>0.1249444467499572</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.275871423129445</v>
+        <v>5.275871423129416</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2545331415358092</v>
+        <v>0.2545331415358305</v>
       </c>
       <c r="J4">
-        <v>0.3581291234446766</v>
+        <v>0.358129123444634</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6580492431493212</v>
+        <v>0.6580492431493425</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.286796536948657</v>
+        <v>1.2867965369486</v>
       </c>
       <c r="C5">
-        <v>0.2665543779527724</v>
+        <v>0.2665543779527439</v>
       </c>
       <c r="D5">
-        <v>0.1207644289624028</v>
+        <v>0.1207644289623602</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.244388142377673</v>
+        <v>0.2443881423777015</v>
       </c>
       <c r="J5">
-        <v>0.3417875017656726</v>
+        <v>0.3417875017656513</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6285864182987737</v>
+        <v>0.6285864182987808</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.276783037824998</v>
+        <v>1.276783037824771</v>
       </c>
       <c r="C6">
-        <v>0.2644316368406265</v>
+        <v>0.2644316368404844</v>
       </c>
       <c r="D6">
-        <v>0.120073100969627</v>
+        <v>0.1200731009695843</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.053758675301822</v>
+        <v>5.053758675301907</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2427120127856668</v>
+        <v>0.2427120127855957</v>
       </c>
       <c r="J6">
-        <v>0.3390872087724475</v>
+        <v>0.3390872087724119</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6237197091032272</v>
+        <v>0.6237197091032485</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.346573400069559</v>
+        <v>1.346573400069616</v>
       </c>
       <c r="C7">
-        <v>0.2792283716632227</v>
+        <v>0.2792283716632085</v>
       </c>
       <c r="D7">
-        <v>0.1248878818007455</v>
+        <v>0.1248878818009374</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.273291551380396</v>
+        <v>5.27329155138051</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2543957414127576</v>
+        <v>0.2543957414127433</v>
       </c>
       <c r="J7">
         <v>0.3579078236868938</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6576501366985426</v>
+        <v>0.657650136698571</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.662612029784896</v>
+        <v>1.662612029784924</v>
       </c>
       <c r="C8">
-        <v>0.3463268165007207</v>
+        <v>0.3463268165004649</v>
       </c>
       <c r="D8">
-        <v>0.1466119106644044</v>
+        <v>0.1466119106642907</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.26469993370921</v>
+        <v>6.264699933709295</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3073550295946106</v>
+        <v>0.3073550295946603</v>
       </c>
       <c r="J8">
-        <v>0.4431618152133296</v>
+        <v>0.4431618152133154</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8116229240976338</v>
+        <v>0.8116229240976693</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.322546676208958</v>
+        <v>2.322546676208844</v>
       </c>
       <c r="C9">
-        <v>0.4872644882607347</v>
+        <v>0.4872644882610757</v>
       </c>
       <c r="D9">
-        <v>0.1917801642720462</v>
+        <v>0.1917801642719752</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.322412660490244</v>
+        <v>8.322412660490329</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4182095343274099</v>
+        <v>0.4182095343273815</v>
       </c>
       <c r="J9">
-        <v>0.6214230639196998</v>
+        <v>0.6214230639197424</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.134776266481424</v>
+        <v>1.134776266481452</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>2.844858791237868</v>
       </c>
       <c r="C10">
-        <v>0.5998837734430253</v>
+        <v>0.599883773442599</v>
       </c>
       <c r="D10">
-        <v>0.2275125168508652</v>
+        <v>0.227512516850723</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.940386395393404</v>
+        <v>9.94038639539329</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5062039873621842</v>
+        <v>0.5062039873621202</v>
       </c>
       <c r="J10">
-        <v>0.7628195264331197</v>
+        <v>0.7628195264331268</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.392070017705905</v>
+        <v>1.392070017705933</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.094222057380648</v>
+        <v>3.094222057380762</v>
       </c>
       <c r="C11">
-        <v>0.6540384651712827</v>
+        <v>0.6540384651713396</v>
       </c>
       <c r="D11">
-        <v>0.2445943430693518</v>
+        <v>0.2445943430689397</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.70971979265312</v>
+        <v>10.70971979265295</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5482959921327364</v>
+        <v>0.5482959921327222</v>
       </c>
       <c r="J11">
-        <v>0.8304372187437181</v>
+        <v>0.83043721874364</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.515384760084288</v>
+        <v>1.51538476008426</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.190716125082929</v>
+        <v>3.190716125082815</v>
       </c>
       <c r="C12">
-        <v>0.6750657282831867</v>
+        <v>0.6750657282831298</v>
       </c>
       <c r="D12">
-        <v>0.2512100318729722</v>
+        <v>0.2512100318733275</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.00689001889867</v>
+        <v>11.0068900188989</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5645983845759659</v>
+        <v>0.5645983845760227</v>
       </c>
       <c r="J12">
-        <v>0.8566233014118723</v>
+        <v>0.8566233014118154</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.56318630952947</v>
+        <v>1.563186309529456</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.169835751714004</v>
+        <v>3.169835751714231</v>
       </c>
       <c r="C13">
         <v>0.6705121868816946</v>
       </c>
       <c r="D13">
-        <v>0.2497781681723126</v>
+        <v>0.2497781681723552</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.94261037904226</v>
+        <v>10.94261037904215</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.561070019500832</v>
+        <v>0.561070019500896</v>
       </c>
       <c r="J13">
         <v>0.8509558947505269</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.552838555324101</v>
+        <v>1.552838555324087</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.102116869652662</v>
+        <v>3.102116869652775</v>
       </c>
       <c r="C14">
-        <v>0.6557573221691655</v>
+        <v>0.6557573221695918</v>
       </c>
       <c r="D14">
-        <v>0.2451354881492449</v>
+        <v>0.2451354881494865</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.73404436144898</v>
+        <v>10.73404436144904</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5496294940945248</v>
+        <v>0.5496294940945177</v>
       </c>
       <c r="J14">
-        <v>0.8325792350492378</v>
+        <v>0.8325792350491952</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.519293962977187</v>
+        <v>1.519293962977159</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.060918495747444</v>
+        <v>3.060918495747387</v>
       </c>
       <c r="C15">
-        <v>0.6467905816051882</v>
+        <v>0.6467905816051598</v>
       </c>
       <c r="D15">
-        <v>0.2423118131837612</v>
+        <v>0.2423118131835196</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.60708691721868</v>
+        <v>10.60708691721874</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5426713265468877</v>
+        <v>0.5426713265469161</v>
       </c>
       <c r="J15">
-        <v>0.8214021682080954</v>
+        <v>0.8214021682080528</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.498897572660098</v>
+        <v>1.498897572660084</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.828829329631219</v>
+        <v>2.828829329631446</v>
       </c>
       <c r="C16">
-        <v>0.5964115272196011</v>
+        <v>0.5964115272196295</v>
       </c>
       <c r="D16">
-        <v>0.2264151119126012</v>
+        <v>0.2264151119121891</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.890864211393591</v>
+        <v>9.89086421139362</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5035000663004112</v>
+        <v>0.5035000663004467</v>
       </c>
       <c r="J16">
-        <v>0.7584755238764131</v>
+        <v>0.7584755238764345</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.384153742192368</v>
+        <v>1.384153742192382</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.689706556296869</v>
+        <v>2.689706556297494</v>
       </c>
       <c r="C17">
-        <v>0.5663191477147222</v>
+        <v>0.5663191477148075</v>
       </c>
       <c r="D17">
-        <v>0.2168932496301608</v>
+        <v>0.2168932496299902</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.460702810527494</v>
+        <v>9.460702810527351</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4800413690836933</v>
+        <v>0.4800413690836791</v>
       </c>
       <c r="J17">
-        <v>0.7207857653859548</v>
+        <v>0.7207857653859406</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.315500379859543</v>
+        <v>1.315500379859529</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.610767574506838</v>
+        <v>2.610767574506951</v>
       </c>
       <c r="C18">
-        <v>0.5492789705899668</v>
+        <v>0.5492789705903931</v>
       </c>
       <c r="D18">
-        <v>0.2114923902879298</v>
+        <v>0.2114923902883561</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.216347223278689</v>
+        <v>9.216347223278746</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4667380518635085</v>
+        <v>0.4667380518635298</v>
       </c>
       <c r="J18">
         <v>0.6994103291126521</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.276588706345606</v>
+        <v>1.276588706345635</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.584215562224642</v>
+        <v>2.584215562224585</v>
       </c>
       <c r="C19">
-        <v>0.5435528019134495</v>
+        <v>0.5435528019129947</v>
       </c>
       <c r="D19">
-        <v>0.2096760078206898</v>
+        <v>0.2096760078205051</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.13410965068627</v>
+        <v>9.134109650686241</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4622645100658147</v>
+        <v>0.4622645100658644</v>
       </c>
       <c r="J19">
-        <v>0.6922220449846606</v>
+        <v>0.6922220449846392</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.704402077620443</v>
+        <v>2.704402077620898</v>
       </c>
       <c r="C20">
-        <v>0.569494121333662</v>
+        <v>0.5694941213340599</v>
       </c>
       <c r="D20">
-        <v>0.2178988291724835</v>
+        <v>0.2178988291722277</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4825185350044876</v>
+        <v>0.4825185350045089</v>
       </c>
       <c r="J20">
-        <v>0.7247658675501967</v>
+        <v>0.7247658675502464</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.322747698010616</v>
+        <v>1.322747698010588</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.121948126028428</v>
+        <v>3.121948126028315</v>
       </c>
       <c r="C21">
-        <v>0.6600761705244338</v>
+        <v>0.6600761705248601</v>
       </c>
       <c r="D21">
-        <v>0.2464949082163912</v>
+        <v>0.246494908216107</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5529794027707382</v>
+        <v>0.5529794027707311</v>
       </c>
       <c r="J21">
-        <v>0.8379601846421778</v>
+        <v>0.8379601846421991</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.52911500543334</v>
+        <v>1.529115005433368</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.407110976812021</v>
+        <v>3.407110976811964</v>
       </c>
       <c r="C22">
-        <v>0.7223706470503259</v>
+        <v>0.7223706470499565</v>
       </c>
       <c r="D22">
-        <v>0.2660594377982193</v>
+        <v>0.2660594377981766</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.67224135065828</v>
+        <v>11.6722413506584</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6011873171929807</v>
+        <v>0.601187317193066</v>
       </c>
       <c r="J22">
-        <v>0.9153906587740863</v>
+        <v>0.915390658774065</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.253646766551697</v>
+        <v>3.253646766552038</v>
       </c>
       <c r="C23">
-        <v>0.6888011096606306</v>
+        <v>0.6888011096614832</v>
       </c>
       <c r="D23">
-        <v>0.2555264931115033</v>
+        <v>0.2555264931119723</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5752347072428279</v>
+        <v>0.575234707242771</v>
       </c>
       <c r="J23">
-        <v>0.8737074549776764</v>
+        <v>0.8737074549776338</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.594386333373535</v>
+        <v>1.594386333373549</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.697755006065336</v>
+        <v>2.697755006065279</v>
       </c>
       <c r="C24">
-        <v>0.5680579120964637</v>
+        <v>0.5680579120969185</v>
       </c>
       <c r="D24">
-        <v>0.2174439801244858</v>
+        <v>0.2174439801247559</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.485605365940643</v>
+        <v>9.485605365940614</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0.4813980418432848</v>
       </c>
       <c r="J24">
-        <v>0.7229655587685286</v>
+        <v>0.72296555876855</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.319469461964914</v>
+        <v>1.319469461964871</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>2.138503063468079</v>
       </c>
       <c r="C25">
-        <v>0.4478220457271505</v>
+        <v>0.4478220457270936</v>
       </c>
       <c r="D25">
-        <v>0.1791941354402837</v>
+        <v>0.1791941354402269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.750122755908336</v>
+        <v>7.750122755908365</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3872578664102164</v>
+        <v>0.3872578664102448</v>
       </c>
       <c r="J25">
-        <v>0.5716695714118458</v>
+        <v>0.57166957141186</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.044436529162901</v>
+        <v>1.044436529162894</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.750550636366853</v>
+        <v>1.750550636366825</v>
       </c>
       <c r="C2">
-        <v>0.3650343723062974</v>
+        <v>0.3650343723062406</v>
       </c>
       <c r="D2">
-        <v>0.1526405374366107</v>
+        <v>0.1526405374368807</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.539827942929435</v>
+        <v>6.539827942929577</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3221058799047043</v>
+        <v>0.3221058799046901</v>
       </c>
       <c r="J2">
         <v>0.4668947066035614</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8545580214890336</v>
+        <v>0.8545580214890833</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.498239966855891</v>
+        <v>1.498239966856005</v>
       </c>
       <c r="C3">
-        <v>0.3114061421944712</v>
+        <v>0.3114061421948122</v>
       </c>
       <c r="D3">
-        <v>0.1353268633649591</v>
+        <v>0.1353268633651226</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0.2798004656215838</v>
       </c>
       <c r="J3">
-        <v>0.3988145753897427</v>
+        <v>0.3988145753897214</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7314764011368382</v>
+        <v>0.7314764011368453</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>1.347393988004967</v>
       </c>
       <c r="C4">
-        <v>0.2794023811982811</v>
+        <v>0.2794023811983664</v>
       </c>
       <c r="D4">
-        <v>0.1249444467499572</v>
+        <v>0.1249444467495522</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.275871423129416</v>
+        <v>5.275871423129445</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2545331415358305</v>
+        <v>0.2545331415358092</v>
       </c>
       <c r="J4">
-        <v>0.358129123444634</v>
+        <v>0.3581291234446766</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6580492431493425</v>
+        <v>0.6580492431493212</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.2867965369486</v>
+        <v>1.286796536948657</v>
       </c>
       <c r="C5">
-        <v>0.2665543779527439</v>
+        <v>0.2665543779527724</v>
       </c>
       <c r="D5">
-        <v>0.1207644289623602</v>
+        <v>0.1207644289624028</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2443881423777015</v>
+        <v>0.244388142377673</v>
       </c>
       <c r="J5">
-        <v>0.3417875017656513</v>
+        <v>0.3417875017656726</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6285864182987808</v>
+        <v>0.6285864182987737</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.276783037824771</v>
+        <v>1.276783037824998</v>
       </c>
       <c r="C6">
-        <v>0.2644316368404844</v>
+        <v>0.2644316368406265</v>
       </c>
       <c r="D6">
-        <v>0.1200731009695843</v>
+        <v>0.120073100969627</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.053758675301907</v>
+        <v>5.053758675301822</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2427120127855957</v>
+        <v>0.2427120127856668</v>
       </c>
       <c r="J6">
-        <v>0.3390872087724119</v>
+        <v>0.3390872087724475</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6237197091032485</v>
+        <v>0.6237197091032272</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.346573400069616</v>
+        <v>1.346573400069559</v>
       </c>
       <c r="C7">
-        <v>0.2792283716632085</v>
+        <v>0.2792283716632227</v>
       </c>
       <c r="D7">
-        <v>0.1248878818009374</v>
+        <v>0.1248878818007455</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.27329155138051</v>
+        <v>5.273291551380396</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2543957414127433</v>
+        <v>0.2543957414127576</v>
       </c>
       <c r="J7">
         <v>0.3579078236868938</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.657650136698571</v>
+        <v>0.6576501366985426</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.662612029784924</v>
+        <v>1.662612029784896</v>
       </c>
       <c r="C8">
-        <v>0.3463268165004649</v>
+        <v>0.3463268165007207</v>
       </c>
       <c r="D8">
-        <v>0.1466119106642907</v>
+        <v>0.1466119106644044</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.264699933709295</v>
+        <v>6.26469993370921</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3073550295946603</v>
+        <v>0.3073550295946106</v>
       </c>
       <c r="J8">
-        <v>0.4431618152133154</v>
+        <v>0.4431618152133296</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8116229240976693</v>
+        <v>0.8116229240976338</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.322546676208844</v>
+        <v>2.322546676208958</v>
       </c>
       <c r="C9">
-        <v>0.4872644882610757</v>
+        <v>0.4872644882607347</v>
       </c>
       <c r="D9">
-        <v>0.1917801642719752</v>
+        <v>0.1917801642720462</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.322412660490329</v>
+        <v>8.322412660490244</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4182095343273815</v>
+        <v>0.4182095343274099</v>
       </c>
       <c r="J9">
-        <v>0.6214230639197424</v>
+        <v>0.6214230639196998</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.134776266481452</v>
+        <v>1.134776266481424</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>2.844858791237868</v>
       </c>
       <c r="C10">
-        <v>0.599883773442599</v>
+        <v>0.5998837734430253</v>
       </c>
       <c r="D10">
-        <v>0.227512516850723</v>
+        <v>0.2275125168508652</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.94038639539329</v>
+        <v>9.940386395393404</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5062039873621202</v>
+        <v>0.5062039873621842</v>
       </c>
       <c r="J10">
-        <v>0.7628195264331268</v>
+        <v>0.7628195264331197</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.392070017705933</v>
+        <v>1.392070017705905</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.094222057380762</v>
+        <v>3.094222057380648</v>
       </c>
       <c r="C11">
-        <v>0.6540384651713396</v>
+        <v>0.6540384651712827</v>
       </c>
       <c r="D11">
-        <v>0.2445943430689397</v>
+        <v>0.2445943430693518</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.70971979265295</v>
+        <v>10.70971979265312</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5482959921327222</v>
+        <v>0.5482959921327364</v>
       </c>
       <c r="J11">
-        <v>0.83043721874364</v>
+        <v>0.8304372187437181</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.51538476008426</v>
+        <v>1.515384760084288</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.190716125082815</v>
+        <v>3.190716125082929</v>
       </c>
       <c r="C12">
-        <v>0.6750657282831298</v>
+        <v>0.6750657282831867</v>
       </c>
       <c r="D12">
-        <v>0.2512100318733275</v>
+        <v>0.2512100318729722</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.0068900188989</v>
+        <v>11.00689001889867</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5645983845760227</v>
+        <v>0.5645983845759659</v>
       </c>
       <c r="J12">
-        <v>0.8566233014118154</v>
+        <v>0.8566233014118723</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.563186309529456</v>
+        <v>1.56318630952947</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.169835751714231</v>
+        <v>3.169835751714004</v>
       </c>
       <c r="C13">
         <v>0.6705121868816946</v>
       </c>
       <c r="D13">
-        <v>0.2497781681723552</v>
+        <v>0.2497781681723126</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.94261037904215</v>
+        <v>10.94261037904226</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.561070019500896</v>
+        <v>0.561070019500832</v>
       </c>
       <c r="J13">
         <v>0.8509558947505269</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.552838555324087</v>
+        <v>1.552838555324101</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.102116869652775</v>
+        <v>3.102116869652662</v>
       </c>
       <c r="C14">
-        <v>0.6557573221695918</v>
+        <v>0.6557573221691655</v>
       </c>
       <c r="D14">
-        <v>0.2451354881494865</v>
+        <v>0.2451354881492449</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.73404436144904</v>
+        <v>10.73404436144898</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5496294940945177</v>
+        <v>0.5496294940945248</v>
       </c>
       <c r="J14">
-        <v>0.8325792350491952</v>
+        <v>0.8325792350492378</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.519293962977159</v>
+        <v>1.519293962977187</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.060918495747387</v>
+        <v>3.060918495747444</v>
       </c>
       <c r="C15">
-        <v>0.6467905816051598</v>
+        <v>0.6467905816051882</v>
       </c>
       <c r="D15">
-        <v>0.2423118131835196</v>
+        <v>0.2423118131837612</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.60708691721874</v>
+        <v>10.60708691721868</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5426713265469161</v>
+        <v>0.5426713265468877</v>
       </c>
       <c r="J15">
-        <v>0.8214021682080528</v>
+        <v>0.8214021682080954</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.498897572660084</v>
+        <v>1.498897572660098</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.828829329631446</v>
+        <v>2.828829329631219</v>
       </c>
       <c r="C16">
-        <v>0.5964115272196295</v>
+        <v>0.5964115272196011</v>
       </c>
       <c r="D16">
-        <v>0.2264151119121891</v>
+        <v>0.2264151119126012</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.89086421139362</v>
+        <v>9.890864211393591</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5035000663004467</v>
+        <v>0.5035000663004112</v>
       </c>
       <c r="J16">
-        <v>0.7584755238764345</v>
+        <v>0.7584755238764131</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.384153742192382</v>
+        <v>1.384153742192368</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.689706556297494</v>
+        <v>2.689706556296869</v>
       </c>
       <c r="C17">
-        <v>0.5663191477148075</v>
+        <v>0.5663191477147222</v>
       </c>
       <c r="D17">
-        <v>0.2168932496299902</v>
+        <v>0.2168932496301608</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.460702810527351</v>
+        <v>9.460702810527494</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4800413690836791</v>
+        <v>0.4800413690836933</v>
       </c>
       <c r="J17">
-        <v>0.7207857653859406</v>
+        <v>0.7207857653859548</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.315500379859529</v>
+        <v>1.315500379859543</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.610767574506951</v>
+        <v>2.610767574506838</v>
       </c>
       <c r="C18">
-        <v>0.5492789705903931</v>
+        <v>0.5492789705899668</v>
       </c>
       <c r="D18">
-        <v>0.2114923902883561</v>
+        <v>0.2114923902879298</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.216347223278746</v>
+        <v>9.216347223278689</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4667380518635298</v>
+        <v>0.4667380518635085</v>
       </c>
       <c r="J18">
         <v>0.6994103291126521</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.276588706345635</v>
+        <v>1.276588706345606</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.584215562224585</v>
+        <v>2.584215562224642</v>
       </c>
       <c r="C19">
-        <v>0.5435528019129947</v>
+        <v>0.5435528019134495</v>
       </c>
       <c r="D19">
-        <v>0.2096760078205051</v>
+        <v>0.2096760078206898</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.134109650686241</v>
+        <v>9.13410965068627</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4622645100658644</v>
+        <v>0.4622645100658147</v>
       </c>
       <c r="J19">
-        <v>0.6922220449846392</v>
+        <v>0.6922220449846606</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.704402077620898</v>
+        <v>2.704402077620443</v>
       </c>
       <c r="C20">
-        <v>0.5694941213340599</v>
+        <v>0.569494121333662</v>
       </c>
       <c r="D20">
-        <v>0.2178988291722277</v>
+        <v>0.2178988291724835</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4825185350045089</v>
+        <v>0.4825185350044876</v>
       </c>
       <c r="J20">
-        <v>0.7247658675502464</v>
+        <v>0.7247658675501967</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.322747698010588</v>
+        <v>1.322747698010616</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.121948126028315</v>
+        <v>3.121948126028428</v>
       </c>
       <c r="C21">
-        <v>0.6600761705248601</v>
+        <v>0.6600761705244338</v>
       </c>
       <c r="D21">
-        <v>0.246494908216107</v>
+        <v>0.2464949082163912</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5529794027707311</v>
+        <v>0.5529794027707382</v>
       </c>
       <c r="J21">
-        <v>0.8379601846421991</v>
+        <v>0.8379601846421778</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.529115005433368</v>
+        <v>1.52911500543334</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.407110976811964</v>
+        <v>3.407110976812021</v>
       </c>
       <c r="C22">
-        <v>0.7223706470499565</v>
+        <v>0.7223706470503259</v>
       </c>
       <c r="D22">
-        <v>0.2660594377981766</v>
+        <v>0.2660594377982193</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.6722413506584</v>
+        <v>11.67224135065828</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.601187317193066</v>
+        <v>0.6011873171929807</v>
       </c>
       <c r="J22">
-        <v>0.915390658774065</v>
+        <v>0.9153906587740863</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.253646766552038</v>
+        <v>3.253646766551697</v>
       </c>
       <c r="C23">
-        <v>0.6888011096614832</v>
+        <v>0.6888011096606306</v>
       </c>
       <c r="D23">
-        <v>0.2555264931119723</v>
+        <v>0.2555264931115033</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.575234707242771</v>
+        <v>0.5752347072428279</v>
       </c>
       <c r="J23">
-        <v>0.8737074549776338</v>
+        <v>0.8737074549776764</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.594386333373549</v>
+        <v>1.594386333373535</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.697755006065279</v>
+        <v>2.697755006065336</v>
       </c>
       <c r="C24">
-        <v>0.5680579120969185</v>
+        <v>0.5680579120964637</v>
       </c>
       <c r="D24">
-        <v>0.2174439801247559</v>
+        <v>0.2174439801244858</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.485605365940614</v>
+        <v>9.485605365940643</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0.4813980418432848</v>
       </c>
       <c r="J24">
-        <v>0.72296555876855</v>
+        <v>0.7229655587685286</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.319469461964871</v>
+        <v>1.319469461964914</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>2.138503063468079</v>
       </c>
       <c r="C25">
-        <v>0.4478220457270936</v>
+        <v>0.4478220457271505</v>
       </c>
       <c r="D25">
-        <v>0.1791941354402269</v>
+        <v>0.1791941354402837</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.750122755908365</v>
+        <v>7.750122755908336</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3872578664102448</v>
+        <v>0.3872578664102164</v>
       </c>
       <c r="J25">
-        <v>0.57166957141186</v>
+        <v>0.5716695714118458</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.044436529162894</v>
+        <v>1.044436529162901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.750550636366825</v>
+        <v>1.732364888695429</v>
       </c>
       <c r="C2">
-        <v>0.3650343723062406</v>
+        <v>0.3555762774103925</v>
       </c>
       <c r="D2">
-        <v>0.1526405374368807</v>
+        <v>0.1569783122006925</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.539827942929577</v>
+        <v>6.555926524968896</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007908759811616199</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3221058799046901</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4668947066035614</v>
+        <v>0.3204915964542749</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4605697813304133</v>
       </c>
       <c r="L2">
-        <v>0.8545580214890833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.849951242488622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.498239966856005</v>
+        <v>1.483504605467829</v>
       </c>
       <c r="C3">
-        <v>0.3114061421948122</v>
+        <v>0.3030185605203712</v>
       </c>
       <c r="D3">
-        <v>0.1353268633651226</v>
+        <v>0.1396916718601275</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.749602186687724</v>
+        <v>5.771530605864427</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008014384884068309</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2798004656215838</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3988145753897214</v>
+        <v>0.2782765777227496</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3935220497416125</v>
       </c>
       <c r="L3">
-        <v>0.7314764011368453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.7277524771481012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.347393988004967</v>
+        <v>1.334771078337127</v>
       </c>
       <c r="C4">
-        <v>0.2794023811983664</v>
+        <v>0.2716717108169036</v>
       </c>
       <c r="D4">
-        <v>0.1249444467495522</v>
+        <v>0.1293206253140156</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.275871423129445</v>
+        <v>5.301274172114887</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008080462581936025</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2545331415358092</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3581291234446766</v>
+        <v>0.2530571489475975</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3534692972034179</v>
       </c>
       <c r="L4">
-        <v>0.6580492431493212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6548519630109979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.286796536948657</v>
+        <v>1.275035376057332</v>
       </c>
       <c r="C5">
-        <v>0.2665543779527724</v>
+        <v>0.2590920450218164</v>
       </c>
       <c r="D5">
-        <v>0.1207644289624028</v>
+        <v>0.1251440732769922</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.085271560105809</v>
+        <v>5.112069813168944</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008107730099026555</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.244388142377673</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3417875017656726</v>
+        <v>0.242930026557822</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3373859258498939</v>
       </c>
       <c r="L5">
-        <v>0.6285864182987737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6256009030753376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.276783037824998</v>
+        <v>1.265165089232482</v>
       </c>
       <c r="C6">
-        <v>0.2644316368406265</v>
+        <v>0.2570139194238692</v>
       </c>
       <c r="D6">
-        <v>0.120073100969627</v>
+        <v>0.1244532541185919</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.053758675301822</v>
+        <v>5.080787586679719</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008112279295558765</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2427120127856668</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3390872087724475</v>
+        <v>0.2412567733891109</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3347285596421443</v>
       </c>
       <c r="L6">
-        <v>0.6237197091032272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6207692125200595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.346573400069559</v>
+        <v>1.333962105601188</v>
       </c>
       <c r="C7">
-        <v>0.2792283716632227</v>
+        <v>0.2715013166812383</v>
       </c>
       <c r="D7">
-        <v>0.1248878818007455</v>
+        <v>0.1292641116556723</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.273291551380396</v>
+        <v>5.298713195399785</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008080828901193782</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2543957414127576</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3579078236868938</v>
+        <v>0.2529199962341906</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.353251477720363</v>
       </c>
       <c r="L7">
-        <v>0.6576501366985426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6544557227737897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.662612029784896</v>
+        <v>1.645618829259263</v>
       </c>
       <c r="C8">
-        <v>0.3463268165007207</v>
+        <v>0.3372383954493046</v>
       </c>
       <c r="D8">
-        <v>0.1466119106644044</v>
+        <v>0.1509601881881082</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.26469993370921</v>
+        <v>6.282834479257616</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007944946198205145</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3073550295946106</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4431618152133296</v>
+        <v>0.3057736725880886</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4371935793030985</v>
       </c>
       <c r="L8">
-        <v>0.8116229240976338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.8073244338529335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.322546676208958</v>
+        <v>2.296778747560609</v>
       </c>
       <c r="C9">
-        <v>0.4872644882607347</v>
+        <v>0.4754629877569698</v>
       </c>
       <c r="D9">
-        <v>0.1917801642720462</v>
+        <v>0.1960239759133344</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.322412660490244</v>
+        <v>8.325086155073649</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007686500597389277</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4182095343274099</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6214230639196998</v>
+        <v>0.4163453915087132</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6128332769262101</v>
       </c>
       <c r="L9">
-        <v>1.134776266481424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.128132695069553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.844858791237868</v>
+        <v>2.812299138245066</v>
       </c>
       <c r="C10">
-        <v>0.5998837734430253</v>
+        <v>0.5859916335813011</v>
       </c>
       <c r="D10">
-        <v>0.2275125168508652</v>
+        <v>0.2316347338363585</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.940386395393404</v>
+        <v>9.930395663673409</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007498751439465223</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5062039873621842</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7628195264331197</v>
+        <v>0.5040581064880314</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7522046634533694</v>
       </c>
       <c r="L10">
-        <v>1.392070017705905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.383490628979487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.094222057380648</v>
+        <v>3.058426523734568</v>
       </c>
       <c r="C11">
-        <v>0.6540384651712827</v>
+        <v>0.6391525164094674</v>
       </c>
       <c r="D11">
-        <v>0.2445943430693518</v>
+        <v>0.2486469706255434</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.70971979265312</v>
+        <v>10.69350398715324</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007413041122069702</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5482959921327364</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8304372187437181</v>
+        <v>0.5459970134479875</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8188585308433076</v>
       </c>
       <c r="L11">
-        <v>1.515384760084288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.505846209646606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.190716125082929</v>
+        <v>3.153666211965287</v>
       </c>
       <c r="C12">
-        <v>0.6750657282831867</v>
+        <v>0.6597948744633868</v>
       </c>
       <c r="D12">
-        <v>0.2512100318729722</v>
+        <v>0.2552337366734321</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.00689001889867</v>
+        <v>10.98822990266649</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007380463087661484</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5645983845759659</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8566233014118723</v>
+        <v>0.5622368137231817</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.84467114586554</v>
       </c>
       <c r="L12">
-        <v>1.56318630952947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.553269546988574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.169835751714004</v>
+        <v>3.133057433277941</v>
       </c>
       <c r="C13">
-        <v>0.6705121868816946</v>
+        <v>0.6553246562349955</v>
       </c>
       <c r="D13">
-        <v>0.2497781681723126</v>
+        <v>0.2538082262051375</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.94261037904226</v>
+        <v>10.92448094221305</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007387486154292225</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.561070019500832</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8509558947505269</v>
+        <v>0.5587221542061869</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8390845942698988</v>
       </c>
       <c r="L13">
-        <v>1.552838555324101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.543003985348278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.102116869652662</v>
+        <v>3.066218772633192</v>
       </c>
       <c r="C14">
-        <v>0.6557573221691655</v>
+        <v>0.6408398950615037</v>
       </c>
       <c r="D14">
-        <v>0.2451354881492449</v>
+        <v>0.2491857912340549</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.73404436144898</v>
+        <v>10.71762934095699</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007410363841628458</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5496294940945248</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8325792350492378</v>
+        <v>0.5473254654895285</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8209700076882172</v>
       </c>
       <c r="L14">
-        <v>1.519293962977187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.509724622482651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.060918495747444</v>
+        <v>3.025555506405794</v>
       </c>
       <c r="C15">
-        <v>0.6467905816051882</v>
+        <v>0.6320374014035792</v>
       </c>
       <c r="D15">
-        <v>0.2423118131837612</v>
+        <v>0.2463741642748118</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.60708691721868</v>
+        <v>10.5917099987779</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007424358705049684</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5426713265468877</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8214021682080954</v>
+        <v>0.5403935119231917</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8099522818125067</v>
       </c>
       <c r="L15">
-        <v>1.498897572660098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.489488611421208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.828829329631219</v>
+        <v>2.796477569793467</v>
       </c>
       <c r="C16">
-        <v>0.5964115272196011</v>
+        <v>0.5825832818715071</v>
       </c>
       <c r="D16">
-        <v>0.2264151119126012</v>
+        <v>0.2305415483999127</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.890864211393591</v>
+        <v>9.881269351673865</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000750434040204681</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5035000663004112</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7584755238764131</v>
+        <v>0.5013636075549002</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7479226038469164</v>
       </c>
       <c r="L16">
-        <v>1.384153742192368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.375635163134447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.689706556296869</v>
+        <v>2.659159567742392</v>
       </c>
       <c r="C17">
-        <v>0.5663191477147222</v>
+        <v>0.5530458351062464</v>
       </c>
       <c r="D17">
-        <v>0.2168932496301608</v>
+        <v>0.2210550184338871</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.460702810527494</v>
+        <v>9.454523380686652</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007553278206691071</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4800413690836933</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7207857653859548</v>
+        <v>0.477984597532398</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7107706987064404</v>
       </c>
       <c r="L17">
-        <v>1.315500379859543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.307505580199248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.610767574506838</v>
+        <v>2.581245455634019</v>
       </c>
       <c r="C18">
-        <v>0.5492789705899668</v>
+        <v>0.5363209919728718</v>
       </c>
       <c r="D18">
-        <v>0.2114923902879298</v>
+        <v>0.2156731757257546</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.216347223278689</v>
+        <v>9.21209006049412</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007581402921717202</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4667380518635085</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6994103291126521</v>
+        <v>0.4647248439889466</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6897007833030244</v>
       </c>
       <c r="L18">
-        <v>1.276588706345606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.268888050461655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.584215562224642</v>
+        <v>2.555038392195968</v>
       </c>
       <c r="C19">
-        <v>0.5435528019134495</v>
+        <v>0.5307009927476258</v>
       </c>
       <c r="D19">
-        <v>0.2096760078206898</v>
+        <v>0.2138630212788399</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.13410965068627</v>
+        <v>9.13049662099084</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007590923654167088</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4622645100658147</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6922220449846606</v>
+        <v>0.4602656889107166</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6826153463096389</v>
       </c>
       <c r="L19">
-        <v>1.263507250038941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.255905059837033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.704402077620443</v>
+        <v>2.673664384136885</v>
       </c>
       <c r="C20">
-        <v>0.569494121333662</v>
+        <v>0.5561621490411142</v>
       </c>
       <c r="D20">
-        <v>0.2178988291724835</v>
+        <v>0.2220569752165602</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.506170354576341</v>
+        <v>9.499631843768725</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007548071591918186</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4825185350044876</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7247658675501967</v>
+        <v>0.4804535221089239</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7146939578494198</v>
       </c>
       <c r="L20">
-        <v>1.322747698010616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.314697901616128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.121948126028428</v>
+        <v>3.085792348802784</v>
       </c>
       <c r="C21">
-        <v>0.6600761705244338</v>
+        <v>0.6450796626880901</v>
       </c>
       <c r="D21">
-        <v>0.2464949082163912</v>
+        <v>0.2505393394763473</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.79513734987518</v>
+        <v>10.77822131461528</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000740364810060105</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5529794027707382</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8379601846421778</v>
+        <v>0.5506626333747775</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8262742324545584</v>
       </c>
       <c r="L21">
-        <v>1.52911500543334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.519468202584548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.407110976812021</v>
+        <v>3.367239572607104</v>
       </c>
       <c r="C22">
-        <v>0.7223706470503259</v>
+        <v>0.7062346593313009</v>
       </c>
       <c r="D22">
-        <v>0.2660594377982193</v>
+        <v>0.2700142071158353</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.67224135065828</v>
+        <v>11.64802200724478</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007308503396621901</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6011873171929807</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9153906587740863</v>
+        <v>0.5986783667777686</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9025987538959299</v>
       </c>
       <c r="L22">
-        <v>1.67055544847203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.659774905559601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.253646766551697</v>
+        <v>3.21577768558376</v>
       </c>
       <c r="C23">
-        <v>0.6888011096606306</v>
+        <v>0.673278991574449</v>
       </c>
       <c r="D23">
-        <v>0.2555264931115033</v>
+        <v>0.2595307332651515</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.20053651055719</v>
+        <v>11.18027100928629</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007359383004958483</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5752347072428279</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8737074549776764</v>
+        <v>0.572831286113157</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8615114523858765</v>
       </c>
       <c r="L23">
-        <v>1.594386333373535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.584220651544626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.697755006065336</v>
+        <v>2.667103569324922</v>
       </c>
       <c r="C24">
-        <v>0.5680579120964637</v>
+        <v>0.554752471213618</v>
       </c>
       <c r="D24">
-        <v>0.2174439801244858</v>
+        <v>0.2216037680201879</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.485605365940643</v>
+        <v>9.479229322866104</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007550425529211775</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4813980418432848</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7229655587685286</v>
+        <v>0.4793367617943431</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7129193591492253</v>
       </c>
       <c r="L24">
-        <v>1.319469461964914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.311444551086737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.138503063468079</v>
+        <v>2.115149516984843</v>
       </c>
       <c r="C25">
-        <v>0.4478220457271505</v>
+        <v>0.4367655467551401</v>
       </c>
       <c r="D25">
-        <v>0.1791941354402837</v>
+        <v>0.1834728251280069</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.750122755908336</v>
+        <v>7.7571575059618</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007755817574632134</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3872578664102164</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5716695714118458</v>
+        <v>0.3854807884142062</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5638004646417158</v>
       </c>
       <c r="L25">
-        <v>1.044436529162901</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.038455827420442</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.732364888695429</v>
+        <v>2.641048306296511</v>
       </c>
       <c r="C2">
-        <v>0.3555762774103925</v>
+        <v>0.5000851924418157</v>
       </c>
       <c r="D2">
-        <v>0.1569783122006925</v>
+        <v>0.05047309152665136</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.555926524968896</v>
+        <v>2.179221391550044</v>
       </c>
       <c r="G2">
-        <v>0.0007908759811616199</v>
+        <v>0.0008018596433612261</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3204915964542749</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4605697813304133</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1710053347782221</v>
       </c>
       <c r="M2">
-        <v>0.849951242488622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4380277460992303</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.770666055573798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.483504605467829</v>
+        <v>2.285272711039738</v>
       </c>
       <c r="C3">
-        <v>0.3030185605203712</v>
+        <v>0.4460593335446674</v>
       </c>
       <c r="D3">
-        <v>0.1396916718601275</v>
+        <v>0.05162715820156905</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.771530605864427</v>
+        <v>1.972547896108452</v>
       </c>
       <c r="G3">
-        <v>0.0008014384884068309</v>
+        <v>0.000810133370336901</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2782765777227496</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3935220497416125</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1576832305454587</v>
       </c>
       <c r="M3">
-        <v>0.7277524771481012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.382060653253653</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.613021013769327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.334771078337127</v>
+        <v>2.070024644087198</v>
       </c>
       <c r="C4">
-        <v>0.2716717108169036</v>
+        <v>0.4130776450732583</v>
       </c>
       <c r="D4">
-        <v>0.1293206253140156</v>
+        <v>0.05239943280777837</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.301274172114887</v>
+        <v>1.84998060316201</v>
       </c>
       <c r="G4">
-        <v>0.0008080462581936025</v>
+        <v>0.0008153485432088781</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2530571489475975</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3534692972034179</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1497730746023791</v>
       </c>
       <c r="M4">
-        <v>0.6548519630109979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3482979648723656</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.519793252363485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.275035376057332</v>
+        <v>1.983003992034298</v>
       </c>
       <c r="C5">
-        <v>0.2590920450218164</v>
+        <v>0.3996697374502389</v>
       </c>
       <c r="D5">
-        <v>0.1251440732769922</v>
+        <v>0.05272909658038927</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.112069813168944</v>
+        <v>1.801014002060384</v>
       </c>
       <c r="G5">
-        <v>0.0008107730099026555</v>
+        <v>0.000817509303377729</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.242930026557822</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3373859258498939</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1466118318523613</v>
       </c>
       <c r="M5">
-        <v>0.6256009030753376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3346724132378469</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.48261144666462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.265165089232482</v>
+        <v>1.968593198477492</v>
       </c>
       <c r="C6">
-        <v>0.2570139194238692</v>
+        <v>0.3974448953319722</v>
       </c>
       <c r="D6">
-        <v>0.1244532541185919</v>
+        <v>0.05278471128113793</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.080787586679719</v>
+        <v>1.792939350348263</v>
       </c>
       <c r="G6">
-        <v>0.0008112279295558765</v>
+        <v>0.0008178702857667139</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2412567733891109</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3347285596421443</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.146090511711499</v>
       </c>
       <c r="M6">
-        <v>0.6207692125200595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.332417431246057</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.476483883372481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.333962105601188</v>
+        <v>2.068848378922212</v>
       </c>
       <c r="C7">
-        <v>0.2715013166812383</v>
+        <v>0.4128967096074234</v>
       </c>
       <c r="D7">
-        <v>0.1292641116556723</v>
+        <v>0.05240381953704443</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.298713195399785</v>
+        <v>1.849316389297613</v>
       </c>
       <c r="G7">
-        <v>0.0008080828901193782</v>
+        <v>0.0008153775381288964</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2529199962341906</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.353251477720363</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1497301961772308</v>
       </c>
       <c r="M7">
-        <v>0.6544557227737897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3481136902882511</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.519288639610366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.645618829259263</v>
+        <v>2.517643600395559</v>
       </c>
       <c r="C8">
-        <v>0.3372383954493046</v>
+        <v>0.4814077716854683</v>
       </c>
       <c r="D8">
-        <v>0.1509601881881082</v>
+        <v>0.05085713123878577</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.282834479257616</v>
+        <v>2.106993285257644</v>
       </c>
       <c r="G8">
-        <v>0.0007944946198205145</v>
+        <v>0.0008046853748826356</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3057736725880886</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4371935793030985</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1663523885803215</v>
       </c>
       <c r="M8">
-        <v>0.8073244338529335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4185940378886173</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.715514648335642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.296778747560609</v>
+        <v>3.428640176036879</v>
       </c>
       <c r="C9">
-        <v>0.4754629877569698</v>
+        <v>0.6180536126739469</v>
       </c>
       <c r="D9">
-        <v>0.1960239759133344</v>
+        <v>0.04838263332264603</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.325086155073649</v>
+        <v>2.652077043958826</v>
       </c>
       <c r="G9">
-        <v>0.0007686500597389277</v>
+        <v>0.0007847117517461983</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4163453915087132</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6128332769262101</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2013670302027393</v>
       </c>
       <c r="M9">
-        <v>1.128132695069553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5624894659010238</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.132990602985416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.812299138245066</v>
+        <v>4.125463745149943</v>
       </c>
       <c r="C10">
-        <v>0.5859916335813011</v>
+        <v>0.7210919353187819</v>
       </c>
       <c r="D10">
-        <v>0.2316347338363585</v>
+        <v>0.04698985545612189</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.930395663673409</v>
+        <v>3.085251120414199</v>
       </c>
       <c r="G10">
-        <v>0.0007498751439465223</v>
+        <v>0.0007705216484782066</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5040581064880314</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7522046634533694</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2290001209518095</v>
       </c>
       <c r="M10">
-        <v>1.383490628979487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6731031416933178</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.466460784242216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.058426523734568</v>
+        <v>4.450680552346626</v>
       </c>
       <c r="C11">
-        <v>0.6391525164094674</v>
+        <v>0.7688669781067574</v>
       </c>
       <c r="D11">
-        <v>0.2486469706255434</v>
+        <v>0.04647109778813174</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.69350398715324</v>
+        <v>3.291589269155253</v>
       </c>
       <c r="G11">
-        <v>0.0007413041122069702</v>
+        <v>0.0007641404446697333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5459970134479875</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8188585308433076</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2420960520543503</v>
       </c>
       <c r="M11">
-        <v>1.505846209646606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7248547075697687</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.625733140726879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.153666211965287</v>
+        <v>4.575230106443939</v>
       </c>
       <c r="C12">
-        <v>0.6597948744633868</v>
+        <v>0.7871196114698478</v>
       </c>
       <c r="D12">
-        <v>0.2552337366734321</v>
+        <v>0.0462934110058093</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.98822990266649</v>
+        <v>3.371268711370078</v>
       </c>
       <c r="G12">
-        <v>0.0007380463087661484</v>
+        <v>0.0007617317291110781</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5622368137231817</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.84467114586554</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2471412548030258</v>
       </c>
       <c r="M12">
-        <v>1.553269546988574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7446930008698303</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.687304236016416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.133057433277941</v>
+        <v>4.548340285336735</v>
       </c>
       <c r="C13">
-        <v>0.6553246562349955</v>
+        <v>0.7831808575803336</v>
       </c>
       <c r="D13">
-        <v>0.2538082262051375</v>
+        <v>0.04633080538059531</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.92448094221305</v>
+        <v>3.354036043294712</v>
       </c>
       <c r="G13">
-        <v>0.0007387486154292225</v>
+        <v>0.0007622501969152399</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5587221542061869</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8390845942698988</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2460506713168797</v>
       </c>
       <c r="M13">
-        <v>1.543003985348278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7404091383312448</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.673984911969171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.066218772633192</v>
+        <v>4.460897993875335</v>
       </c>
       <c r="C14">
-        <v>0.6408398950615037</v>
+        <v>0.7703652046708953</v>
       </c>
       <c r="D14">
-        <v>0.2491857912340549</v>
+        <v>0.04645608940160173</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.71762934095699</v>
+        <v>3.298112313981392</v>
       </c>
       <c r="G14">
-        <v>0.0007410363841628458</v>
+        <v>0.0007639421416501741</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5473254654895285</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8209700076882172</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2425093343611877</v>
       </c>
       <c r="M14">
-        <v>1.509724622482651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7264817665660459</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.630772369563147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.025555506405794</v>
+        <v>4.407525830282339</v>
       </c>
       <c r="C15">
-        <v>0.6320374014035792</v>
+        <v>0.7625372602614391</v>
       </c>
       <c r="D15">
-        <v>0.2463741642748118</v>
+        <v>0.0465353445256973</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.5917099987779</v>
+        <v>3.264065105843798</v>
       </c>
       <c r="G15">
-        <v>0.0007424358705049684</v>
+        <v>0.0007649794173638022</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5403935119231917</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8099522818125067</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.240351704423432</v>
       </c>
       <c r="M15">
-        <v>1.489488611421208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7179833666051252</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.604472677748703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.796477569793467</v>
+        <v>4.104393275430596</v>
       </c>
       <c r="C16">
-        <v>0.5825832818715071</v>
+        <v>0.7179904744841394</v>
       </c>
       <c r="D16">
-        <v>0.2305415483999127</v>
+        <v>0.0470262521580942</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.881269351673865</v>
+        <v>3.071970482408858</v>
       </c>
       <c r="G16">
-        <v>0.000750434040204681</v>
+        <v>0.0007709399215896799</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5013636075549002</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7479226038469164</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.228155712908503</v>
       </c>
       <c r="M16">
-        <v>1.375635163134447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6697527817609128</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.456218321951582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.659159567742392</v>
+        <v>3.920682199617943</v>
       </c>
       <c r="C17">
-        <v>0.5530458351062464</v>
+        <v>0.6909146357660916</v>
       </c>
       <c r="D17">
-        <v>0.2210550184338871</v>
+        <v>0.04735830939934615</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.454523380686652</v>
+        <v>2.956644753788765</v>
       </c>
       <c r="G17">
-        <v>0.0007553278206691071</v>
+        <v>0.0007746134699276186</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.477984597532398</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7107706987064404</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2208155252308472</v>
       </c>
       <c r="M17">
-        <v>1.307505580199248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6405554138182126</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.367322553671627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.581245455634019</v>
+        <v>3.815776586023958</v>
       </c>
       <c r="C18">
-        <v>0.5363209919728718</v>
+        <v>0.6754241380108112</v>
       </c>
       <c r="D18">
-        <v>0.2156731757257546</v>
+        <v>0.04755995487992948</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.21209006049412</v>
+        <v>2.891172426549304</v>
       </c>
       <c r="G18">
-        <v>0.0007581402921717202</v>
+        <v>0.0007767335533324103</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4647248439889466</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6897007833030244</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2166424061329337</v>
       </c>
       <c r="M18">
-        <v>1.268888050461655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6238943779344979</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.316893741833326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.555038392195968</v>
+        <v>3.780381837404605</v>
       </c>
       <c r="C19">
-        <v>0.5307009927476258</v>
+        <v>0.6701926552680391</v>
       </c>
       <c r="D19">
-        <v>0.2138630212788399</v>
+        <v>0.04762999563245529</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.13049662099084</v>
+        <v>2.869146406916286</v>
       </c>
       <c r="G19">
-        <v>0.0007590923654167088</v>
+        <v>0.0007774526893814526</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4602656889107166</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6826153463096389</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2152375358553797</v>
       </c>
       <c r="M19">
-        <v>1.255905059837033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6182750019675183</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.29993513720332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.673664384136885</v>
+        <v>3.940158426186656</v>
       </c>
       <c r="C20">
-        <v>0.5561621490411142</v>
+        <v>0.6937881205454914</v>
       </c>
       <c r="D20">
-        <v>0.2220569752165602</v>
+        <v>0.04732184341729351</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.499631843768725</v>
+        <v>2.968830945681049</v>
       </c>
       <c r="G20">
-        <v>0.0007548071591918186</v>
+        <v>0.0007742216938204649</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4804535221089239</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7146939578494198</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2215917820999351</v>
       </c>
       <c r="M20">
-        <v>1.314697901616128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6436495688156469</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.376711885664591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.085792348802784</v>
+        <v>4.486542153290316</v>
       </c>
       <c r="C21">
-        <v>0.6450796626880901</v>
+        <v>0.7741248223392461</v>
       </c>
       <c r="D21">
-        <v>0.2505393394763473</v>
+        <v>0.04641876180734883</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.77822131461528</v>
+        <v>3.314494774246327</v>
       </c>
       <c r="G21">
-        <v>0.000740364810060105</v>
+        <v>0.0007634449925865017</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5506626333747775</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8262742324545584</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2435470850636818</v>
       </c>
       <c r="M21">
-        <v>1.519468202584548</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7305657274371669</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.64342933785376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.367239572607104</v>
+        <v>4.851899205931943</v>
       </c>
       <c r="C22">
-        <v>0.7062346593313009</v>
+        <v>0.8275875098171639</v>
       </c>
       <c r="D22">
-        <v>0.2700142071158353</v>
+        <v>0.04593917349121313</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.64802200724478</v>
+        <v>3.549521478331144</v>
       </c>
       <c r="G22">
-        <v>0.0007308503396621901</v>
+        <v>0.0007564450781427902</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5986783667777686</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9025987538959299</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2584036232594258</v>
       </c>
       <c r="M22">
-        <v>1.659774905559601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7887955323666773</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.825173279123931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.21577768558376</v>
+        <v>4.656066753206858</v>
       </c>
       <c r="C23">
-        <v>0.673278991574449</v>
+        <v>0.7989541738939181</v>
       </c>
       <c r="D23">
-        <v>0.2595307332651515</v>
+        <v>0.0461841803259766</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.18027100928629</v>
+        <v>3.423172844869498</v>
       </c>
       <c r="G23">
-        <v>0.0007359383004958483</v>
+        <v>0.0007601781731047778</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.572831286113157</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8615114523858765</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.250424150856233</v>
       </c>
       <c r="M23">
-        <v>1.584220651544626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7575739615435495</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.727431500967398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.667103569324922</v>
+        <v>3.931351021186401</v>
       </c>
       <c r="C24">
-        <v>0.554752471213618</v>
+        <v>0.6924887844122622</v>
       </c>
       <c r="D24">
-        <v>0.2216037680201879</v>
+        <v>0.0473382963960205</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.479229322866104</v>
+        <v>2.963318998552609</v>
       </c>
       <c r="G24">
-        <v>0.0007550425529211775</v>
+        <v>0.000774398790269541</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4793367617943431</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7129193591492253</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2212406912097578</v>
       </c>
       <c r="M24">
-        <v>1.311444551086737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6422503148329426</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.372464867608358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.115149516984843</v>
+        <v>3.178047033349628</v>
       </c>
       <c r="C25">
-        <v>0.4367655467551401</v>
+        <v>0.5807222332945798</v>
       </c>
       <c r="D25">
-        <v>0.1834728251280069</v>
+        <v>0.04898418827601603</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.7571575059618</v>
+        <v>2.499543599898161</v>
       </c>
       <c r="G25">
-        <v>0.0007755817574632134</v>
+        <v>0.0007900205033095759</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3854807884142062</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5638004646417158</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.191593775092791</v>
       </c>
       <c r="M25">
-        <v>1.038455827420442</v>
+        <v>0.522815664745778</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.015895359507468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.641048306296511</v>
+        <v>0.9966408491573304</v>
       </c>
       <c r="C2">
-        <v>0.5000851924418157</v>
+        <v>0.1249735183385638</v>
       </c>
       <c r="D2">
-        <v>0.05047309152665136</v>
+        <v>0.1400569471070128</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.179221391550044</v>
+        <v>1.208581831596561</v>
       </c>
       <c r="G2">
-        <v>0.0008018596433612261</v>
+        <v>0.8545633859090458</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6010768839164484</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1878701855359921</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.026500645813741</v>
       </c>
       <c r="L2">
-        <v>0.1710053347782221</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4380277460992303</v>
+        <v>0.4214588263898307</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.126873387704016</v>
       </c>
       <c r="O2">
-        <v>1.770666055573798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.285272711039738</v>
+        <v>0.8655461813041541</v>
       </c>
       <c r="C3">
-        <v>0.4460593335446674</v>
+        <v>0.1086649243990934</v>
       </c>
       <c r="D3">
-        <v>0.05162715820156905</v>
+        <v>0.1246684469633834</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.972547896108452</v>
+        <v>1.153658606964427</v>
       </c>
       <c r="G3">
-        <v>0.000810133370336901</v>
+        <v>0.8162992591610561</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5905968498283158</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.173934270915467</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8899540333388813</v>
       </c>
       <c r="L3">
-        <v>0.1576832305454587</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.382060653253653</v>
+        <v>0.3695797301743653</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.172864504646064</v>
       </c>
       <c r="O3">
-        <v>1.613021013769327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.070024644087198</v>
+        <v>0.7856812982564065</v>
       </c>
       <c r="C4">
-        <v>0.4130776450732583</v>
+        <v>0.09869500396895603</v>
       </c>
       <c r="D4">
-        <v>0.05239943280777837</v>
+        <v>0.1153247578961327</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.84998060316201</v>
+        <v>1.12190023375662</v>
       </c>
       <c r="G4">
-        <v>0.0008153485432088781</v>
+        <v>0.7943809430153408</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5850767294543289</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1656417475824412</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8066987939488968</v>
       </c>
       <c r="L4">
-        <v>0.1497730746023791</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3482979648723656</v>
+        <v>0.3380822347270467</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.202526772637665</v>
       </c>
       <c r="O4">
-        <v>1.519793252363485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.983003992034298</v>
+        <v>0.7532730872499371</v>
       </c>
       <c r="C5">
-        <v>0.3996697374502389</v>
+        <v>0.09464061464740325</v>
       </c>
       <c r="D5">
-        <v>0.05272909658038927</v>
+        <v>0.1115413502946438</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.801014002060384</v>
+        <v>1.109425679460514</v>
       </c>
       <c r="G5">
-        <v>0.000817509303377729</v>
+        <v>0.7858227302044014</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5830470334087892</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1623246348727037</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7728974605532528</v>
       </c>
       <c r="L5">
-        <v>0.1466118318523613</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3346724132378469</v>
+        <v>0.325327251948643</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.214962449568734</v>
       </c>
       <c r="O5">
-        <v>1.48261144666462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.968593198477492</v>
+        <v>0.747899449182853</v>
       </c>
       <c r="C6">
-        <v>0.3974448953319722</v>
+        <v>0.09396782466626519</v>
       </c>
       <c r="D6">
-        <v>0.05278471128113793</v>
+        <v>0.1109145204121091</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.792939350348263</v>
+        <v>1.107381753938398</v>
       </c>
       <c r="G6">
-        <v>0.0008178702857667139</v>
+        <v>0.7844235771856347</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5827229917661754</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.161777464577554</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7672917787108986</v>
       </c>
       <c r="L6">
-        <v>0.146090511711499</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.332417431246057</v>
+        <v>0.323213901612867</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.217048127639963</v>
       </c>
       <c r="O6">
-        <v>1.476483883372481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.068848378922212</v>
+        <v>0.7852436997781354</v>
       </c>
       <c r="C7">
-        <v>0.4128967096074234</v>
+        <v>0.0986402941441753</v>
       </c>
       <c r="D7">
-        <v>0.05240381953704443</v>
+        <v>0.115273638233262</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.849316389297613</v>
+        <v>1.121730140052506</v>
       </c>
       <c r="G7">
-        <v>0.0008153775381288964</v>
+        <v>0.7942640399325143</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5850484793728015</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1655967656405934</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8062424549471245</v>
       </c>
       <c r="L7">
-        <v>0.1497301961772308</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3481136902882511</v>
+        <v>0.3379099023192325</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.202693087895728</v>
       </c>
       <c r="O7">
-        <v>1.519288639610366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.517643600395559</v>
+        <v>0.9512963822674294</v>
       </c>
       <c r="C8">
-        <v>0.4814077716854683</v>
+        <v>0.1193396816703256</v>
       </c>
       <c r="D8">
-        <v>0.05085713123878577</v>
+        <v>0.1347278759557895</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.106993285257644</v>
+        <v>1.1892199113489</v>
       </c>
       <c r="G8">
-        <v>0.0008046853748826356</v>
+        <v>0.8410287888467423</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5972672042315992</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1830075995327149</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9792847660384609</v>
       </c>
       <c r="L8">
-        <v>0.1663523885803215</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4185940378886173</v>
+        <v>0.4034912498022081</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.142429542879682</v>
       </c>
       <c r="O8">
-        <v>1.715514648335642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428640176036879</v>
+        <v>1.282905861504361</v>
       </c>
       <c r="C9">
-        <v>0.6180536126739469</v>
+        <v>0.1604016860425475</v>
       </c>
       <c r="D9">
-        <v>0.04838263332264603</v>
+        <v>0.1738154442413418</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.652077043958826</v>
+        <v>1.33845030608208</v>
       </c>
       <c r="G9">
-        <v>0.0007847117517461983</v>
+        <v>0.946330701479539</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6289777544500623</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.219453282822883</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.324298857373719</v>
       </c>
       <c r="L9">
-        <v>0.2013670302027393</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5624894659010238</v>
+        <v>0.5353696862825785</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.036020600696418</v>
       </c>
       <c r="O9">
-        <v>2.132990602985416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.125463745149943</v>
+        <v>1.531694572633654</v>
       </c>
       <c r="C10">
-        <v>0.7210919353187819</v>
+        <v>0.1910460036717154</v>
       </c>
       <c r="D10">
-        <v>0.04698985545612189</v>
+        <v>0.2032639505492853</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.085251120414199</v>
+        <v>1.460318439229695</v>
       </c>
       <c r="G10">
-        <v>0.0007705216484782066</v>
+        <v>1.033616792043958</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6577361020916754</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2479442538694343</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.582811096104734</v>
       </c>
       <c r="L10">
-        <v>0.2290001209518095</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6731031416933178</v>
+        <v>0.6349274925187132</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.9657160887325631</v>
       </c>
       <c r="O10">
-        <v>2.466460784242216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.450680552346626</v>
+        <v>1.646359373596681</v>
       </c>
       <c r="C11">
-        <v>0.7688669781067574</v>
+        <v>0.2051364844727033</v>
       </c>
       <c r="D11">
-        <v>0.04647109778813174</v>
+        <v>0.2168578596023707</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.291589269155253</v>
+        <v>1.518882458717258</v>
       </c>
       <c r="G11">
-        <v>0.0007641404446697333</v>
+        <v>1.07587422636098</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6721828956276568</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2613527563466107</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.701887336148133</v>
       </c>
       <c r="L11">
-        <v>0.2420960520543503</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7248547075697687</v>
+        <v>0.6809602062606004</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.9356122653264336</v>
       </c>
       <c r="O11">
-        <v>2.625733140726879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.575230106443939</v>
+        <v>1.690026817507487</v>
       </c>
       <c r="C12">
-        <v>0.7871196114698478</v>
+        <v>0.2104979628351344</v>
       </c>
       <c r="D12">
-        <v>0.0462934110058093</v>
+        <v>0.2220373442876848</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.371268711370078</v>
+        <v>1.541550928009386</v>
       </c>
       <c r="G12">
-        <v>0.0007617317291110781</v>
+        <v>1.092278569870771</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6778659210431641</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.266501367827189</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.74722498453707</v>
       </c>
       <c r="L12">
-        <v>0.2471412548030258</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7446930008698303</v>
+        <v>0.6985130411870912</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.9244984739817355</v>
       </c>
       <c r="O12">
-        <v>2.687304236016416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.548340285336735</v>
+        <v>1.680610753913385</v>
       </c>
       <c r="C13">
-        <v>0.7831808575803336</v>
+        <v>0.2093420591657491</v>
       </c>
       <c r="D13">
-        <v>0.04633080538059531</v>
+        <v>0.2209203806482947</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.354036043294712</v>
+        <v>1.536646298517837</v>
       </c>
       <c r="G13">
-        <v>0.0007622501969152399</v>
+        <v>1.088727106854449</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6766322647860932</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2653892471914787</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.737449202506923</v>
       </c>
       <c r="L13">
-        <v>0.2460506713168797</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7404091383312448</v>
+        <v>0.6947270905214467</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.9268790475036539</v>
       </c>
       <c r="O13">
-        <v>2.673984911969171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.460897993875335</v>
+        <v>1.64994678908019</v>
       </c>
       <c r="C14">
-        <v>0.7703652046708953</v>
+        <v>0.2055770361803155</v>
       </c>
       <c r="D14">
-        <v>0.04645608940160173</v>
+        <v>0.2172833221691945</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.298112313981392</v>
+        <v>1.520737302571462</v>
       </c>
       <c r="G14">
-        <v>0.0007639421416501741</v>
+        <v>1.077215543016351</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6726460887965686</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2617748703233076</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.705612158064241</v>
       </c>
       <c r="L14">
-        <v>0.2425093343611877</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7264817665660459</v>
+        <v>0.6824017722076405</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.9346921023995378</v>
       </c>
       <c r="O14">
-        <v>2.630772369563147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.407525830282339</v>
+        <v>1.631197310142511</v>
       </c>
       <c r="C15">
-        <v>0.7625372602614391</v>
+        <v>0.2032743287238929</v>
       </c>
       <c r="D15">
-        <v>0.0465353445256973</v>
+        <v>0.2150597595649089</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.264065105843798</v>
+        <v>1.511057905149485</v>
       </c>
       <c r="G15">
-        <v>0.0007649794173638022</v>
+        <v>1.070217885165334</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6702325951796979</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2595704282375237</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.686144137418665</v>
       </c>
       <c r="L15">
-        <v>0.240351704423432</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7179833666051252</v>
+        <v>0.674868394568314</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.9395155451312718</v>
       </c>
       <c r="O15">
-        <v>2.604472677748703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.104393275430596</v>
+        <v>1.524233623194505</v>
       </c>
       <c r="C16">
-        <v>0.7179904744841394</v>
+        <v>0.190128524219574</v>
       </c>
       <c r="D16">
-        <v>0.0470262521580942</v>
+        <v>0.2023798137190198</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.071970482408858</v>
+        <v>1.456557558209042</v>
       </c>
       <c r="G16">
-        <v>0.0007709399215896799</v>
+        <v>1.030909470508206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6568207755187672</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2470775489075407</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.575061725776209</v>
       </c>
       <c r="L16">
-        <v>0.228155712908503</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6697527817609128</v>
+        <v>0.6319353050952543</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9677225575566908</v>
       </c>
       <c r="O16">
-        <v>2.456218321951582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.920682199617943</v>
+        <v>1.459018460159513</v>
       </c>
       <c r="C17">
-        <v>0.6909146357660916</v>
+        <v>0.1821052918521815</v>
       </c>
       <c r="D17">
-        <v>0.04735830939934615</v>
+        <v>0.1946539969695493</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.956644753788765</v>
+        <v>1.423952786484918</v>
       </c>
       <c r="G17">
-        <v>0.0007746134699276186</v>
+        <v>1.007472718359082</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6489535973747707</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2395328717674516</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.50731776618656</v>
       </c>
       <c r="L17">
-        <v>0.2208155252308472</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6405554138182126</v>
+        <v>0.6057974875089585</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.9855185042334398</v>
       </c>
       <c r="O17">
-        <v>2.367322553671627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.815776586023958</v>
+        <v>1.421646552762923</v>
       </c>
       <c r="C18">
-        <v>0.6754241380108112</v>
+        <v>0.1775044136917785</v>
       </c>
       <c r="D18">
-        <v>0.04755995487992948</v>
+        <v>0.190228698630591</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.891172426549304</v>
+        <v>1.405490865185484</v>
       </c>
       <c r="G18">
-        <v>0.0007767335533324103</v>
+        <v>0.9942302911863976</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6445559944320394</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.235235091048196</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.468490154980856</v>
       </c>
       <c r="L18">
-        <v>0.2166424061329337</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6238943779344979</v>
+        <v>0.5908327497378778</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.995930011986772</v>
       </c>
       <c r="O18">
-        <v>2.316893741833326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780381837404605</v>
+        <v>1.409015852717687</v>
       </c>
       <c r="C19">
-        <v>0.6701926552680391</v>
+        <v>0.1759488985055526</v>
       </c>
       <c r="D19">
-        <v>0.04762999563245529</v>
+        <v>0.1887334288892504</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.869146406916286</v>
+        <v>1.399288810583002</v>
       </c>
       <c r="G19">
-        <v>0.0007774526893814526</v>
+        <v>0.9897864326169241</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.643088450909346</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2337869058618907</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.455366331508316</v>
       </c>
       <c r="L19">
-        <v>0.2152375358553797</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6182750019675183</v>
+        <v>0.5857773865177833</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.9994848941227801</v>
       </c>
       <c r="O19">
-        <v>2.29993513720332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.940158426186656</v>
+        <v>1.46594620494551</v>
       </c>
       <c r="C20">
-        <v>0.6937881205454914</v>
+        <v>0.1829579141763702</v>
       </c>
       <c r="D20">
-        <v>0.04732184341729351</v>
+        <v>0.1954744969403635</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.968830945681049</v>
+        <v>1.427393158871197</v>
       </c>
       <c r="G20">
-        <v>0.0007742216938204649</v>
+        <v>1.009942743382581</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6497777749339377</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2403316510150688</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.514514821018963</v>
       </c>
       <c r="L20">
-        <v>0.2215917820999351</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6436495688156469</v>
+        <v>0.6085726568158663</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.9836057954976027</v>
       </c>
       <c r="O20">
-        <v>2.376711885664591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.486542153290316</v>
+        <v>1.658946582792424</v>
       </c>
       <c r="C21">
-        <v>0.7741248223392461</v>
+        <v>0.2066821820460092</v>
       </c>
       <c r="D21">
-        <v>0.04641876180734883</v>
+        <v>0.2183507242943534</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.314494774246327</v>
+        <v>1.525396467236305</v>
       </c>
       <c r="G21">
-        <v>0.0007634449925865017</v>
+        <v>1.08058554972655</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6738110272888349</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2628345145211313</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.714956510266376</v>
       </c>
       <c r="L21">
-        <v>0.2435470850636818</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7305657274371669</v>
+        <v>0.6860186061636711</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.9323893276600543</v>
       </c>
       <c r="O21">
-        <v>2.64342933785376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.851899205931943</v>
+        <v>1.786536416823282</v>
       </c>
       <c r="C22">
-        <v>0.8275875098171639</v>
+        <v>0.2223394559300118</v>
       </c>
       <c r="D22">
-        <v>0.04593917349121313</v>
+        <v>0.2334885672599825</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.549521478331144</v>
+        <v>1.592334490045914</v>
       </c>
       <c r="G22">
-        <v>0.0007564450781427902</v>
+        <v>1.129118729366027</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6907642940103926</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2779593968015774</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.847408619534178</v>
       </c>
       <c r="L22">
-        <v>0.2584036232594258</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7887955323666773</v>
+        <v>0.7373482520988333</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.9005910095564431</v>
       </c>
       <c r="O22">
-        <v>2.825173279123931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.656066753206858</v>
+        <v>1.718295043325782</v>
       </c>
       <c r="C23">
-        <v>0.7989541738939181</v>
+        <v>0.2139674993081826</v>
       </c>
       <c r="D23">
-        <v>0.0461841803259766</v>
+        <v>0.2253909378355701</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.423172844869498</v>
+        <v>1.55632940097064</v>
       </c>
       <c r="G23">
-        <v>0.0007601781731047778</v>
+        <v>1.102986801267861</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6815963073621276</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2698463562330602</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.776571751812071</v>
       </c>
       <c r="L23">
-        <v>0.250424150856233</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7575739615435495</v>
+        <v>0.7098822454467495</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.9174035669414664</v>
       </c>
       <c r="O23">
-        <v>2.727431500967398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.931351021186401</v>
+        <v>1.462813796546271</v>
       </c>
       <c r="C24">
-        <v>0.6924887844122622</v>
+        <v>0.1825724072227075</v>
       </c>
       <c r="D24">
-        <v>0.0473382963960205</v>
+        <v>0.1951034981437232</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.963318998552609</v>
+        <v>1.425836888185771</v>
       </c>
       <c r="G24">
-        <v>0.000774398790269541</v>
+        <v>1.008825326113637</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6494047750485663</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2399703995907458</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.511260663459865</v>
       </c>
       <c r="L24">
-        <v>0.2212406912097578</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6422503148329426</v>
+        <v>0.6073178099736651</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.9844699704505473</v>
       </c>
       <c r="O24">
-        <v>2.372464867608358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.178047033349628</v>
+        <v>1.192407259856424</v>
       </c>
       <c r="C25">
-        <v>0.5807222332945798</v>
+        <v>0.1492243221249652</v>
       </c>
       <c r="D25">
-        <v>0.04898418827601603</v>
+        <v>0.1631250596309428</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.499543599898161</v>
+        <v>1.296080754570525</v>
       </c>
       <c r="G25">
-        <v>0.0007900205033095759</v>
+        <v>0.9162269432989234</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6194968683205673</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2093165307178566</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.230200543319825</v>
       </c>
       <c r="L25">
-        <v>0.191593775092791</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.522815664745778</v>
+        <v>0.4992762853022725</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.063478216546841</v>
       </c>
       <c r="O25">
-        <v>2.015895359507468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9966408491573304</v>
+        <v>0.5052451069971653</v>
       </c>
       <c r="C2">
-        <v>0.1249735183385638</v>
+        <v>0.03838363311821524</v>
       </c>
       <c r="D2">
-        <v>0.1400569471070128</v>
+        <v>0.1762427502561366</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.208581831596561</v>
+        <v>2.020745369541231</v>
       </c>
       <c r="G2">
-        <v>0.8545633859090458</v>
+        <v>1.292789114319987</v>
       </c>
       <c r="H2">
-        <v>0.6010768839164484</v>
+        <v>1.225385994647766</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1878701855359921</v>
+        <v>0.2849123555693325</v>
       </c>
       <c r="K2">
-        <v>1.026500645813741</v>
+        <v>0.4663479685445395</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4214588263898307</v>
+        <v>0.3243925944714405</v>
       </c>
       <c r="N2">
-        <v>1.126873387704016</v>
+        <v>2.261013135025742</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8655461813041541</v>
+        <v>0.470537953993329</v>
       </c>
       <c r="C3">
-        <v>0.1086649243990934</v>
+        <v>0.0337565837968441</v>
       </c>
       <c r="D3">
-        <v>0.1246684469633834</v>
+        <v>0.173065920998198</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.153658606964427</v>
+        <v>2.018328926407705</v>
       </c>
       <c r="G3">
-        <v>0.8162992591610561</v>
+        <v>1.290651734703999</v>
       </c>
       <c r="H3">
-        <v>0.5905968498283158</v>
+        <v>1.2291682874461</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.173934270915467</v>
+        <v>0.2830260406512721</v>
       </c>
       <c r="K3">
-        <v>0.8899540333388813</v>
+        <v>0.4296111438855803</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3695797301743653</v>
+        <v>0.3120357957168736</v>
       </c>
       <c r="N3">
-        <v>1.172864504646064</v>
+        <v>2.280554701740044</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7856812982564065</v>
+        <v>0.4494599612741581</v>
       </c>
       <c r="C4">
-        <v>0.09869500396895603</v>
+        <v>0.03091873727477434</v>
       </c>
       <c r="D4">
-        <v>0.1153247578961327</v>
+        <v>0.1711892472870602</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.12190023375662</v>
+        <v>2.017806375024534</v>
       </c>
       <c r="G4">
-        <v>0.7943809430153408</v>
+        <v>1.290027140437857</v>
       </c>
       <c r="H4">
-        <v>0.5850767294543289</v>
+        <v>1.231978801297117</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1656417475824412</v>
+        <v>0.2820036415501974</v>
       </c>
       <c r="K4">
-        <v>0.8066987939488968</v>
+        <v>0.4072482278075142</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3380822347270467</v>
+        <v>0.3046148592141407</v>
       </c>
       <c r="N4">
-        <v>1.202526772637665</v>
+        <v>2.293230099939734</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7532730872499371</v>
+        <v>0.4409291969961942</v>
       </c>
       <c r="C5">
-        <v>0.09464061464740325</v>
+        <v>0.02976310740700683</v>
       </c>
       <c r="D5">
-        <v>0.1115413502946438</v>
+        <v>0.1704431459982345</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.109425679460514</v>
+        <v>2.017835180667376</v>
       </c>
       <c r="G5">
-        <v>0.7858227302044014</v>
+        <v>1.289945464361963</v>
       </c>
       <c r="H5">
-        <v>0.5830470334087892</v>
+        <v>1.233246930721876</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1623246348727037</v>
+        <v>0.2816211724433373</v>
       </c>
       <c r="K5">
-        <v>0.7728974605532528</v>
+        <v>0.3981840955030975</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.325327251948643</v>
+        <v>0.3016326633247886</v>
       </c>
       <c r="N5">
-        <v>1.214962449568734</v>
+        <v>2.298565568594992</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.747899449182853</v>
+        <v>0.4395162226094556</v>
       </c>
       <c r="C6">
-        <v>0.09396782466626519</v>
+        <v>0.02957126568728086</v>
       </c>
       <c r="D6">
-        <v>0.1109145204121091</v>
+        <v>0.170320385516618</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.107381753938398</v>
+        <v>2.01785456671648</v>
       </c>
       <c r="G6">
-        <v>0.7844235771856347</v>
+        <v>1.289942339217717</v>
       </c>
       <c r="H6">
-        <v>0.5827229917661754</v>
+        <v>1.233464922824666</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.161777464577554</v>
+        <v>0.281559727853022</v>
       </c>
       <c r="K6">
-        <v>0.7672917787108986</v>
+        <v>0.39668196620255</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.323213901612867</v>
+        <v>0.3011400055459461</v>
       </c>
       <c r="N6">
-        <v>1.217048127639963</v>
+        <v>2.299461793920514</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7852436997781354</v>
+        <v>0.4493446744216101</v>
       </c>
       <c r="C7">
-        <v>0.0986402941441753</v>
+        <v>0.03090314872007127</v>
       </c>
       <c r="D7">
-        <v>0.115273638233262</v>
+        <v>0.1711791094594872</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.121730140052506</v>
+        <v>2.017805784597087</v>
       </c>
       <c r="G7">
-        <v>0.7942640399325143</v>
+        <v>1.290025339183629</v>
       </c>
       <c r="H7">
-        <v>0.5850484793728015</v>
+        <v>1.231995406344907</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1655967656405934</v>
+        <v>0.2819983450742853</v>
       </c>
       <c r="K7">
-        <v>0.8062424549471245</v>
+        <v>0.4071257872778915</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3379099023192325</v>
+        <v>0.3045744705000217</v>
       </c>
       <c r="N7">
-        <v>1.202693087895728</v>
+        <v>2.293301367106356</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9512963822674294</v>
+        <v>0.4932300057374448</v>
       </c>
       <c r="C8">
-        <v>0.1193396816703256</v>
+        <v>0.0367875744708499</v>
       </c>
       <c r="D8">
-        <v>0.1347278759557895</v>
+        <v>0.175132081194306</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.1892199113489</v>
+        <v>2.019712721741513</v>
       </c>
       <c r="G8">
-        <v>0.8410287888467423</v>
+        <v>1.291909339715062</v>
       </c>
       <c r="H8">
-        <v>0.5972672042315992</v>
+        <v>1.226588848177514</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1830075995327149</v>
+        <v>0.2842337767326342</v>
       </c>
       <c r="K8">
-        <v>0.9792847660384609</v>
+        <v>0.4536410551461074</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4034912498022081</v>
+        <v>0.3200975372610486</v>
       </c>
       <c r="N8">
-        <v>1.142429542879682</v>
+        <v>2.267610572249353</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.282905861504361</v>
+        <v>0.5811257300912871</v>
       </c>
       <c r="C9">
-        <v>0.1604016860425475</v>
+        <v>0.04835204293719642</v>
       </c>
       <c r="D9">
-        <v>0.1738154442413418</v>
+        <v>0.1834676823901589</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.33845030608208</v>
+        <v>2.031078689461125</v>
       </c>
       <c r="G9">
-        <v>0.946330701479539</v>
+        <v>1.301067119789622</v>
       </c>
       <c r="H9">
-        <v>0.6289777544500623</v>
+        <v>1.219857824867162</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.219453282822883</v>
+        <v>0.2896948257275298</v>
       </c>
       <c r="K9">
-        <v>1.324298857373719</v>
+        <v>0.5463881163709345</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5353696862825785</v>
+        <v>0.3518541012631999</v>
       </c>
       <c r="N9">
-        <v>1.036020600696418</v>
+        <v>2.222602485651691</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.531694572633654</v>
+        <v>0.646820505845767</v>
       </c>
       <c r="C10">
-        <v>0.1910460036717154</v>
+        <v>0.05686450344992977</v>
       </c>
       <c r="D10">
-        <v>0.2032639505492853</v>
+        <v>0.1899450774377982</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.460318439229695</v>
+        <v>2.044082842158929</v>
       </c>
       <c r="G10">
-        <v>1.033616792043958</v>
+        <v>1.311137225141266</v>
       </c>
       <c r="H10">
-        <v>0.6577361020916754</v>
+        <v>1.2172707484916</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2479442538694343</v>
+        <v>0.2943644628007576</v>
       </c>
       <c r="K10">
-        <v>1.582811096104734</v>
+        <v>0.6154623539423767</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6349274925187132</v>
+        <v>0.3759870153358378</v>
       </c>
       <c r="N10">
-        <v>0.9657160887325631</v>
+        <v>2.192810674596764</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.646359373596681</v>
+        <v>0.6769495222191892</v>
       </c>
       <c r="C11">
-        <v>0.2051364844727033</v>
+        <v>0.06074073663150159</v>
       </c>
       <c r="D11">
-        <v>0.2168578596023707</v>
+        <v>0.1929679960919088</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.518882458717258</v>
+        <v>2.051010471387826</v>
       </c>
       <c r="G11">
-        <v>1.07587422636098</v>
+        <v>1.316446678256384</v>
       </c>
       <c r="H11">
-        <v>0.6721828956276568</v>
+        <v>1.216605611551174</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2613527563466107</v>
+        <v>0.2966317407612848</v>
       </c>
       <c r="K11">
-        <v>1.701887336148133</v>
+        <v>0.6470890231794613</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6809602062606004</v>
+        <v>0.3871397210936962</v>
       </c>
       <c r="N11">
-        <v>0.9356122653264336</v>
+        <v>2.179969128978861</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.690026817507487</v>
+        <v>0.688393542662709</v>
       </c>
       <c r="C12">
-        <v>0.2104979628351344</v>
+        <v>0.06220911955298902</v>
       </c>
       <c r="D12">
-        <v>0.2220373442876848</v>
+        <v>0.1941236104323991</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.541550928009386</v>
+        <v>2.053779333337829</v>
       </c>
       <c r="G12">
-        <v>1.092278569870771</v>
+        <v>1.318562153026704</v>
       </c>
       <c r="H12">
-        <v>0.6778659210431641</v>
+        <v>1.216427291577844</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.266501367827189</v>
+        <v>0.2975108671480911</v>
       </c>
       <c r="K12">
-        <v>1.74722498453707</v>
+        <v>0.6590944849716038</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6985130411870912</v>
+        <v>0.3913879935505307</v>
       </c>
       <c r="N12">
-        <v>0.9244984739817355</v>
+        <v>2.175208659676883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.680610753913385</v>
+        <v>0.6859273242757524</v>
       </c>
       <c r="C13">
-        <v>0.2093420591657491</v>
+        <v>0.06189285341666562</v>
       </c>
       <c r="D13">
-        <v>0.2209203806482947</v>
+        <v>0.1938742445744026</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.536646298517837</v>
+        <v>2.053176537383393</v>
       </c>
       <c r="G13">
-        <v>1.088727106854449</v>
+        <v>1.318101879968239</v>
       </c>
       <c r="H13">
-        <v>0.6766322647860932</v>
+        <v>1.216462425218268</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2653892471914787</v>
+        <v>0.2973206174281557</v>
       </c>
       <c r="K13">
-        <v>1.737449202506923</v>
+        <v>0.6565076027870589</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6947270905214467</v>
+        <v>0.3904719426279044</v>
       </c>
       <c r="N13">
-        <v>0.9268790475036539</v>
+        <v>2.176229358149897</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.64994678908019</v>
+        <v>0.6778903325694614</v>
       </c>
       <c r="C14">
-        <v>0.2055770361803155</v>
+        <v>0.06086153071510125</v>
       </c>
       <c r="D14">
-        <v>0.2172833221691945</v>
+        <v>0.1930628511370571</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.520737302571462</v>
+        <v>2.051235350911583</v>
       </c>
       <c r="G14">
-        <v>1.077215543016351</v>
+        <v>1.316618616473932</v>
       </c>
       <c r="H14">
-        <v>0.6726460887965686</v>
+        <v>1.216589467140906</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2617748703233076</v>
+        <v>0.2967036550792841</v>
       </c>
       <c r="K14">
-        <v>1.705612158064241</v>
+        <v>0.6480761375204054</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6824017722076405</v>
+        <v>0.3874887289287727</v>
       </c>
       <c r="N14">
-        <v>0.9346921023995378</v>
+        <v>2.179575430458939</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.631197310142511</v>
+        <v>0.6729719685242799</v>
       </c>
       <c r="C15">
-        <v>0.2032743287238929</v>
+        <v>0.06022988521465322</v>
       </c>
       <c r="D15">
-        <v>0.2150597595649089</v>
+        <v>0.1925672666230582</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.511057905149485</v>
+        <v>2.050065269006453</v>
       </c>
       <c r="G15">
-        <v>1.070217885165334</v>
+        <v>1.315723740045428</v>
       </c>
       <c r="H15">
-        <v>0.6702325951796979</v>
+        <v>1.216676861757108</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2595704282375237</v>
+        <v>0.2963284246848872</v>
       </c>
       <c r="K15">
-        <v>1.686144137418665</v>
+        <v>0.6429154069375898</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.674868394568314</v>
+        <v>0.3856646748638539</v>
       </c>
       <c r="N15">
-        <v>0.9395155451312718</v>
+        <v>2.181638328332646</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.524233623194505</v>
+        <v>0.6448563915387524</v>
       </c>
       <c r="C16">
-        <v>0.190128524219574</v>
+        <v>0.05661125876376616</v>
       </c>
       <c r="D16">
-        <v>0.2023798137190198</v>
+        <v>0.189749052006448</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.456557558209042</v>
+        <v>2.043650468643818</v>
       </c>
       <c r="G16">
-        <v>1.030909470508206</v>
+        <v>1.310804911445032</v>
       </c>
       <c r="H16">
-        <v>0.6568207755187672</v>
+        <v>1.217324511259477</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2470775489075407</v>
+        <v>0.2942191681673734</v>
       </c>
       <c r="K16">
-        <v>1.575061725776209</v>
+        <v>0.6133995676168524</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6319353050952543</v>
+        <v>0.3752616621042577</v>
       </c>
       <c r="N16">
-        <v>0.9677225575566908</v>
+        <v>2.193664214995188</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.459018460159513</v>
+        <v>0.6276707175340164</v>
       </c>
       <c r="C17">
-        <v>0.1821052918521815</v>
+        <v>0.05439232665409577</v>
       </c>
       <c r="D17">
-        <v>0.1946539969695493</v>
+        <v>0.1880396631165269</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.423952786484918</v>
+        <v>2.039974385813949</v>
       </c>
       <c r="G17">
-        <v>1.007472718359082</v>
+        <v>1.307974058796034</v>
       </c>
       <c r="H17">
-        <v>0.6489535973747707</v>
+        <v>1.217852866657651</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2395328717674516</v>
+        <v>0.2929618347987315</v>
       </c>
       <c r="K17">
-        <v>1.50731776618656</v>
+        <v>0.5953447280599278</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6057974875089585</v>
+        <v>0.3689243708281822</v>
       </c>
       <c r="N17">
-        <v>0.9855185042334398</v>
+        <v>2.201223868746666</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.421646552762923</v>
+        <v>0.6178089687129784</v>
       </c>
       <c r="C18">
-        <v>0.1775044136917785</v>
+        <v>0.05311642120685178</v>
       </c>
       <c r="D18">
-        <v>0.190228698630591</v>
+        <v>0.1870636557713539</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.405490865185484</v>
+        <v>2.037955252059604</v>
       </c>
       <c r="G18">
-        <v>0.9942302911863976</v>
+        <v>1.306414389696116</v>
       </c>
       <c r="H18">
-        <v>0.6445559944320394</v>
+        <v>1.218204931778203</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.235235091048196</v>
+        <v>0.2922521138376482</v>
       </c>
       <c r="K18">
-        <v>1.468490154980856</v>
+        <v>0.5849793220824893</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5908327497378778</v>
+        <v>0.3652957619886124</v>
       </c>
       <c r="N18">
-        <v>0.995930011986772</v>
+        <v>2.205638887439164</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.409015852717687</v>
+        <v>0.6144739085003152</v>
       </c>
       <c r="C19">
-        <v>0.1759488985055526</v>
+        <v>0.05268448492958555</v>
       </c>
       <c r="D19">
-        <v>0.1887334288892504</v>
+        <v>0.1867344332446947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.399288810583002</v>
+        <v>2.037287967744092</v>
       </c>
       <c r="G19">
-        <v>0.9897864326169241</v>
+        <v>1.305898083930927</v>
       </c>
       <c r="H19">
-        <v>0.643088450909346</v>
+        <v>1.218332409130028</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2337869058618907</v>
+        <v>0.2920141272989554</v>
       </c>
       <c r="K19">
-        <v>1.455366331508316</v>
+        <v>0.5814730899558356</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5857773865177833</v>
+        <v>0.3640700032426878</v>
       </c>
       <c r="N19">
-        <v>0.9994848941227801</v>
+        <v>2.207145224481444</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.46594620494551</v>
+        <v>0.6294977839406783</v>
       </c>
       <c r="C20">
-        <v>0.1829579141763702</v>
+        <v>0.05462849806504266</v>
       </c>
       <c r="D20">
-        <v>0.1954744969403635</v>
+        <v>0.1882208870943742</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.427393158871197</v>
+        <v>2.040355852908974</v>
       </c>
       <c r="G20">
-        <v>1.009942743382581</v>
+        <v>1.308268310912908</v>
       </c>
       <c r="H20">
-        <v>0.6497777749339377</v>
+        <v>1.217791637253768</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2403316510150688</v>
+        <v>0.2930942866962027</v>
       </c>
       <c r="K20">
-        <v>1.514514821018963</v>
+        <v>0.5972647051623312</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6085726568158663</v>
+        <v>0.3695972863058543</v>
       </c>
       <c r="N20">
-        <v>0.9836057954976027</v>
+        <v>2.200412205342005</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.658946582792424</v>
+        <v>0.6802500492735248</v>
       </c>
       <c r="C21">
-        <v>0.2066821820460092</v>
+        <v>0.06116444075665584</v>
       </c>
       <c r="D21">
-        <v>0.2183507242943534</v>
+        <v>0.1933008818061239</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.525396467236305</v>
+        <v>2.051801575092171</v>
       </c>
       <c r="G21">
-        <v>1.08058554972655</v>
+        <v>1.317051438829779</v>
       </c>
       <c r="H21">
-        <v>0.6738110272888349</v>
+        <v>1.216550155909033</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2628345145211313</v>
+        <v>0.2968843140412076</v>
       </c>
       <c r="K21">
-        <v>1.714956510266376</v>
+        <v>0.6505518748721215</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6860186061636711</v>
+        <v>0.3883642939109038</v>
       </c>
       <c r="N21">
-        <v>0.9323893276600543</v>
+        <v>2.178589829324046</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.786536416823282</v>
+        <v>0.7136223873370966</v>
       </c>
       <c r="C22">
-        <v>0.2223394559300118</v>
+        <v>0.06543918148186378</v>
       </c>
       <c r="D22">
-        <v>0.2334885672599825</v>
+        <v>0.1966844551555482</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.592334490045914</v>
+        <v>2.060130213240171</v>
       </c>
       <c r="G22">
-        <v>1.129118729366027</v>
+        <v>1.323403224837676</v>
       </c>
       <c r="H22">
-        <v>0.6907642940103926</v>
+        <v>1.216167483981451</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2779593968015774</v>
+        <v>0.2994811354283087</v>
       </c>
       <c r="K22">
-        <v>1.847408619534178</v>
+        <v>0.6855477784466188</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7373482520988333</v>
+        <v>0.4007751974880307</v>
       </c>
       <c r="N22">
-        <v>0.9005910095564431</v>
+        <v>2.16492424953028</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.718295043325782</v>
+        <v>0.6957924821772963</v>
       </c>
       <c r="C23">
-        <v>0.2139674993081826</v>
+        <v>0.06315739236572426</v>
       </c>
       <c r="D23">
-        <v>0.2253909378355701</v>
+        <v>0.1948727922283098</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.55632940097064</v>
+        <v>2.055607452391115</v>
       </c>
       <c r="G23">
-        <v>1.102986801267861</v>
+        <v>1.319957157610702</v>
       </c>
       <c r="H23">
-        <v>0.6815963073621276</v>
+        <v>1.216332507376706</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2698463562330602</v>
+        <v>0.2980842031058017</v>
       </c>
       <c r="K23">
-        <v>1.776571751812071</v>
+        <v>0.6668543719717661</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7098822454467495</v>
+        <v>0.3941379808739427</v>
       </c>
       <c r="N23">
-        <v>0.9174035669414664</v>
+        <v>2.172163197149665</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.462813796546271</v>
+        <v>0.6286717094958192</v>
       </c>
       <c r="C24">
-        <v>0.1825724072227075</v>
+        <v>0.05452172562894475</v>
       </c>
       <c r="D24">
-        <v>0.1951034981437232</v>
+        <v>0.1881389347254014</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.425836888185771</v>
+        <v>2.040183097905299</v>
       </c>
       <c r="G24">
-        <v>1.008825326113637</v>
+        <v>1.308135068263809</v>
       </c>
       <c r="H24">
-        <v>0.6494047750485663</v>
+        <v>1.21781916858663</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2399703995907458</v>
+        <v>0.2930343642734954</v>
       </c>
       <c r="K24">
-        <v>1.511260663459865</v>
+        <v>0.596396638137179</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6073178099736651</v>
+        <v>0.3692930151595277</v>
       </c>
       <c r="N24">
-        <v>0.9844699704505473</v>
+        <v>2.200778943828837</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.192407259856424</v>
+        <v>0.5571511750769105</v>
       </c>
       <c r="C25">
-        <v>0.1492243221249652</v>
+        <v>0.04522078305845412</v>
       </c>
       <c r="D25">
-        <v>0.1631250596309428</v>
+        <v>0.1811504568678259</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.296080754570525</v>
+        <v>2.027186992511133</v>
       </c>
       <c r="G25">
-        <v>0.9162269432989234</v>
+        <v>1.29800365049438</v>
       </c>
       <c r="H25">
-        <v>0.6194968683205673</v>
+        <v>1.221264494628869</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2093165307178566</v>
+        <v>0.2881020648318469</v>
       </c>
       <c r="K25">
-        <v>1.230200543319825</v>
+        <v>0.5211337253785189</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4992762853022725</v>
+        <v>0.3431223220390294</v>
       </c>
       <c r="N25">
-        <v>1.063478216546841</v>
+        <v>2.234203217887298</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5052451069971653</v>
+        <v>0.9966408491571315</v>
       </c>
       <c r="C2">
-        <v>0.03838363311821524</v>
+        <v>0.1249735183385638</v>
       </c>
       <c r="D2">
-        <v>0.1762427502561366</v>
+        <v>0.140056947107027</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.020745369541231</v>
+        <v>1.208581831596561</v>
       </c>
       <c r="G2">
-        <v>1.292789114319987</v>
+        <v>0.8545633859090742</v>
       </c>
       <c r="H2">
-        <v>1.225385994647766</v>
+        <v>0.6010768839165621</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2849123555693325</v>
+        <v>0.1878701855359211</v>
       </c>
       <c r="K2">
-        <v>0.4663479685445395</v>
+        <v>1.026500645813599</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3243925944714405</v>
+        <v>0.4214588263898307</v>
       </c>
       <c r="N2">
-        <v>2.261013135025742</v>
+        <v>1.126873387703981</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.470537953993329</v>
+        <v>0.8655461813040688</v>
       </c>
       <c r="C3">
-        <v>0.0337565837968441</v>
+        <v>0.1086649243988518</v>
       </c>
       <c r="D3">
-        <v>0.173065920998198</v>
+        <v>0.1246684469633976</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.018328926407705</v>
+        <v>1.153658606964427</v>
       </c>
       <c r="G3">
-        <v>1.290651734703999</v>
+        <v>0.8162992591610561</v>
       </c>
       <c r="H3">
-        <v>1.2291682874461</v>
+        <v>0.5905968498284295</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2830260406512721</v>
+        <v>0.1739342709154315</v>
       </c>
       <c r="K3">
-        <v>0.4296111438855803</v>
+        <v>0.8899540333388813</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3120357957168736</v>
+        <v>0.3695797301743653</v>
       </c>
       <c r="N3">
-        <v>2.280554701740044</v>
+        <v>1.172864504646007</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4494599612741581</v>
+        <v>0.7856812982563781</v>
       </c>
       <c r="C4">
-        <v>0.03091873727477434</v>
+        <v>0.09869500396884234</v>
       </c>
       <c r="D4">
-        <v>0.1711892472870602</v>
+        <v>0.1153247578963601</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.017806375024534</v>
+        <v>1.121900233756605</v>
       </c>
       <c r="G4">
-        <v>1.290027140437857</v>
+        <v>0.7943809430153266</v>
       </c>
       <c r="H4">
-        <v>1.231978801297117</v>
+        <v>0.5850767294543004</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2820036415501974</v>
+        <v>0.1656417475823986</v>
       </c>
       <c r="K4">
-        <v>0.4072482278075142</v>
+        <v>0.8066987939488399</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3046148592141407</v>
+        <v>0.3380822347270538</v>
       </c>
       <c r="N4">
-        <v>2.293230099939734</v>
+        <v>1.202526772637636</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409291969961942</v>
+        <v>0.753273087249994</v>
       </c>
       <c r="C5">
-        <v>0.02976310740700683</v>
+        <v>0.09464061464744589</v>
       </c>
       <c r="D5">
-        <v>0.1704431459982345</v>
+        <v>0.1115413502948144</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.017835180667376</v>
+        <v>1.109425679460514</v>
       </c>
       <c r="G5">
-        <v>1.289945464361963</v>
+        <v>0.7858227302044583</v>
       </c>
       <c r="H5">
-        <v>1.233246930721876</v>
+        <v>0.5830470334088034</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2816211724433373</v>
+        <v>0.1623246348726681</v>
       </c>
       <c r="K5">
-        <v>0.3981840955030975</v>
+        <v>0.7728974605534233</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3016326633247886</v>
+        <v>0.3253272519486501</v>
       </c>
       <c r="N5">
-        <v>2.298565568594992</v>
+        <v>1.214962449568763</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4395162226094556</v>
+        <v>0.7478994491832225</v>
       </c>
       <c r="C6">
-        <v>0.02957126568728086</v>
+        <v>0.09396782466660625</v>
       </c>
       <c r="D6">
-        <v>0.170320385516618</v>
+        <v>0.1109145204119812</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.01785456671648</v>
+        <v>1.107381753938398</v>
       </c>
       <c r="G6">
-        <v>1.289942339217717</v>
+        <v>0.7844235771856773</v>
       </c>
       <c r="H6">
-        <v>1.233464922824666</v>
+        <v>0.5827229917661754</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.281559727853022</v>
+        <v>0.161777464577618</v>
       </c>
       <c r="K6">
-        <v>0.39668196620255</v>
+        <v>0.7672917787108986</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3011400055459461</v>
+        <v>0.3232139016128599</v>
       </c>
       <c r="N6">
-        <v>2.299461793920514</v>
+        <v>1.217048127640016</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4493446744216101</v>
+        <v>0.785243699778249</v>
       </c>
       <c r="C7">
-        <v>0.03090314872007127</v>
+        <v>0.09864029414384845</v>
       </c>
       <c r="D7">
-        <v>0.1711791094594872</v>
+        <v>0.1152736382332762</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.017805784597087</v>
+        <v>1.121730140052506</v>
       </c>
       <c r="G7">
-        <v>1.290025339183629</v>
+        <v>0.7942640399325427</v>
       </c>
       <c r="H7">
-        <v>1.231995406344907</v>
+        <v>0.5850484793729152</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2819983450742853</v>
+        <v>0.1655967656405934</v>
       </c>
       <c r="K7">
-        <v>0.4071257872778915</v>
+        <v>0.8062424549470677</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3045744705000217</v>
+        <v>0.3379099023192396</v>
       </c>
       <c r="N7">
-        <v>2.293301367106356</v>
+        <v>1.202693087895778</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4932300057374448</v>
+        <v>0.9512963822674578</v>
       </c>
       <c r="C8">
-        <v>0.0367875744708499</v>
+        <v>0.1193396816703114</v>
       </c>
       <c r="D8">
-        <v>0.175132081194306</v>
+        <v>0.134727875956159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.019712721741513</v>
+        <v>1.189219911348872</v>
       </c>
       <c r="G8">
-        <v>1.291909339715062</v>
+        <v>0.8410287888467423</v>
       </c>
       <c r="H8">
-        <v>1.226588848177514</v>
+        <v>0.5972672042315992</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2842337767326342</v>
+        <v>0.1830075995327149</v>
       </c>
       <c r="K8">
-        <v>0.4536410551461074</v>
+        <v>0.9792847660384609</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3200975372610486</v>
+        <v>0.403491249802201</v>
       </c>
       <c r="N8">
-        <v>2.267610572249353</v>
+        <v>1.142429542879611</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5811257300912871</v>
+        <v>1.282905861504304</v>
       </c>
       <c r="C9">
-        <v>0.04835204293719642</v>
+        <v>0.1604016860425475</v>
       </c>
       <c r="D9">
-        <v>0.1834676823901589</v>
+        <v>0.1738154442416118</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.031078689461125</v>
+        <v>1.338450306082066</v>
       </c>
       <c r="G9">
-        <v>1.301067119789622</v>
+        <v>0.9463307014795106</v>
       </c>
       <c r="H9">
-        <v>1.219857824867162</v>
+        <v>0.6289777544500339</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2896948257275298</v>
+        <v>0.2194532828228759</v>
       </c>
       <c r="K9">
-        <v>0.5463881163709345</v>
+        <v>1.324298857373748</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3518541012631999</v>
+        <v>0.5353696862825643</v>
       </c>
       <c r="N9">
-        <v>2.222602485651691</v>
+        <v>1.036020600696396</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.646820505845767</v>
+        <v>1.531694572633626</v>
       </c>
       <c r="C10">
-        <v>0.05686450344992977</v>
+        <v>0.1910460036718433</v>
       </c>
       <c r="D10">
-        <v>0.1899450774377982</v>
+        <v>0.2032639505495979</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.044082842158929</v>
+        <v>1.460318439229681</v>
       </c>
       <c r="G10">
-        <v>1.311137225141266</v>
+        <v>1.033616792043958</v>
       </c>
       <c r="H10">
-        <v>1.2172707484916</v>
+        <v>0.6577361020917891</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2943644628007576</v>
+        <v>0.2479442538695622</v>
       </c>
       <c r="K10">
-        <v>0.6154623539423767</v>
+        <v>1.582811096104734</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3759870153358378</v>
+        <v>0.6349274925187345</v>
       </c>
       <c r="N10">
-        <v>2.192810674596764</v>
+        <v>0.9657160887325205</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6769495222191892</v>
+        <v>1.646359373596653</v>
       </c>
       <c r="C11">
-        <v>0.06074073663150159</v>
+        <v>0.2051364844726891</v>
       </c>
       <c r="D11">
-        <v>0.1929679960919088</v>
+        <v>0.2168578596024844</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.051010471387826</v>
+        <v>1.518882458717258</v>
       </c>
       <c r="G11">
-        <v>1.316446678256384</v>
+        <v>1.075874226360966</v>
       </c>
       <c r="H11">
-        <v>1.216605611551174</v>
+        <v>0.6721828956277847</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2966317407612848</v>
+        <v>0.2613527563466675</v>
       </c>
       <c r="K11">
-        <v>0.6470890231794613</v>
+        <v>1.70188733614799</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3871397210936962</v>
+        <v>0.6809602062605862</v>
       </c>
       <c r="N11">
-        <v>2.179969128978861</v>
+        <v>0.9356122653264407</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.688393542662709</v>
+        <v>1.690026817507515</v>
       </c>
       <c r="C12">
-        <v>0.06220911955298902</v>
+        <v>0.2104979628352908</v>
       </c>
       <c r="D12">
-        <v>0.1941236104323991</v>
+        <v>0.2220373442876706</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.053779333337829</v>
+        <v>1.541550928009386</v>
       </c>
       <c r="G12">
-        <v>1.318562153026704</v>
+        <v>1.092278569870786</v>
       </c>
       <c r="H12">
-        <v>1.216427291577844</v>
+        <v>0.6778659210431925</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2975108671480911</v>
+        <v>0.2665013678272175</v>
       </c>
       <c r="K12">
-        <v>0.6590944849716038</v>
+        <v>1.747224984537098</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3913879935505307</v>
+        <v>0.698513041187077</v>
       </c>
       <c r="N12">
-        <v>2.175208659676883</v>
+        <v>0.9244984739818207</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6859273242757524</v>
+        <v>1.680610753913442</v>
       </c>
       <c r="C13">
-        <v>0.06189285341666562</v>
+        <v>0.2093420591658628</v>
       </c>
       <c r="D13">
-        <v>0.1938742445744026</v>
+        <v>0.2209203806480247</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.053176537383393</v>
+        <v>1.536646298517837</v>
       </c>
       <c r="G13">
-        <v>1.318101879968239</v>
+        <v>1.088727106854492</v>
       </c>
       <c r="H13">
-        <v>1.216462425218268</v>
+        <v>0.6766322647860932</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2973206174281557</v>
+        <v>0.2653892471914787</v>
       </c>
       <c r="K13">
-        <v>0.6565076027870589</v>
+        <v>1.737449202506951</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3904719426279044</v>
+        <v>0.6947270905214395</v>
       </c>
       <c r="N13">
-        <v>2.176229358149897</v>
+        <v>0.92687904750359</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6778903325694614</v>
+        <v>1.649946789080133</v>
       </c>
       <c r="C14">
-        <v>0.06086153071510125</v>
+        <v>0.2055770361803297</v>
       </c>
       <c r="D14">
-        <v>0.1930628511370571</v>
+        <v>0.2172833221690809</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.051235350911583</v>
+        <v>1.520737302571476</v>
       </c>
       <c r="G14">
-        <v>1.316618616473932</v>
+        <v>1.077215543016337</v>
       </c>
       <c r="H14">
-        <v>1.216589467140906</v>
+        <v>0.6726460887965828</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2967036550792841</v>
+        <v>0.2617748703232792</v>
       </c>
       <c r="K14">
-        <v>0.6480761375204054</v>
+        <v>1.705612158064241</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3874887289287727</v>
+        <v>0.6824017722076334</v>
       </c>
       <c r="N14">
-        <v>2.179575430458939</v>
+        <v>0.934692102399616</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6729719685242799</v>
+        <v>1.631197310142454</v>
       </c>
       <c r="C15">
-        <v>0.06022988521465322</v>
+        <v>0.2032743287238929</v>
       </c>
       <c r="D15">
-        <v>0.1925672666230582</v>
+        <v>0.2150597595650083</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.050065269006453</v>
+        <v>1.511057905149457</v>
       </c>
       <c r="G15">
-        <v>1.315723740045428</v>
+        <v>1.070217885165292</v>
       </c>
       <c r="H15">
-        <v>1.216676861757108</v>
+        <v>0.67023259517984</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2963284246848872</v>
+        <v>0.2595704282375237</v>
       </c>
       <c r="K15">
-        <v>0.6429154069375898</v>
+        <v>1.686144137418694</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3856646748638539</v>
+        <v>0.6748683945683212</v>
       </c>
       <c r="N15">
-        <v>2.181638328332646</v>
+        <v>0.939515545131357</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6448563915387524</v>
+        <v>1.524233623194363</v>
       </c>
       <c r="C16">
-        <v>0.05661125876376616</v>
+        <v>0.1901285242197019</v>
       </c>
       <c r="D16">
-        <v>0.189749052006448</v>
+        <v>0.2023798137190198</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.043650468643818</v>
+        <v>1.456557558209042</v>
       </c>
       <c r="G16">
-        <v>1.310804911445032</v>
+        <v>1.030909470508178</v>
       </c>
       <c r="H16">
-        <v>1.217324511259477</v>
+        <v>0.6568207755187956</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2942191681673734</v>
+        <v>0.2470775489076402</v>
       </c>
       <c r="K16">
-        <v>0.6133995676168524</v>
+        <v>1.575061725776322</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3752616621042577</v>
+        <v>0.6319353050952614</v>
       </c>
       <c r="N16">
-        <v>2.193664214995188</v>
+        <v>0.9677225575566197</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6276707175340164</v>
+        <v>1.459018460159513</v>
       </c>
       <c r="C17">
-        <v>0.05439232665409577</v>
+        <v>0.1821052918523094</v>
       </c>
       <c r="D17">
-        <v>0.1880396631165269</v>
+        <v>0.1946539969693504</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.039974385813949</v>
+        <v>1.423952786484918</v>
       </c>
       <c r="G17">
-        <v>1.307974058796034</v>
+        <v>1.007472718359125</v>
       </c>
       <c r="H17">
-        <v>1.217852866657651</v>
+        <v>0.6489535973748843</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2929618347987315</v>
+        <v>0.2395328717674516</v>
       </c>
       <c r="K17">
-        <v>0.5953447280599278</v>
+        <v>1.50731776618656</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3689243708281822</v>
+        <v>0.6057974875089442</v>
       </c>
       <c r="N17">
-        <v>2.201223868746666</v>
+        <v>0.9855185042334398</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6178089687129784</v>
+        <v>1.421646552763065</v>
       </c>
       <c r="C18">
-        <v>0.05311642120685178</v>
+        <v>0.1775044136915369</v>
       </c>
       <c r="D18">
-        <v>0.1870636557713539</v>
+        <v>0.1902286986305199</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.037955252059604</v>
+        <v>1.40549086518547</v>
       </c>
       <c r="G18">
-        <v>1.306414389696116</v>
+        <v>0.9942302911864402</v>
       </c>
       <c r="H18">
-        <v>1.218204931778203</v>
+        <v>0.6445559944319399</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2922521138376482</v>
+        <v>0.2352350910481817</v>
       </c>
       <c r="K18">
-        <v>0.5849793220824893</v>
+        <v>1.468490154980941</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3652957619886124</v>
+        <v>0.5908327497378849</v>
       </c>
       <c r="N18">
-        <v>2.205638887439164</v>
+        <v>0.9959300119867649</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6144739085003152</v>
+        <v>1.40901585271763</v>
       </c>
       <c r="C19">
-        <v>0.05268448492958555</v>
+        <v>0.1759488985055668</v>
       </c>
       <c r="D19">
-        <v>0.1867344332446947</v>
+        <v>0.1887334288895914</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.037287967744092</v>
+        <v>1.399288810582988</v>
       </c>
       <c r="G19">
-        <v>1.305898083930927</v>
+        <v>0.9897864326168531</v>
       </c>
       <c r="H19">
-        <v>1.218332409130028</v>
+        <v>0.6430884509092323</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2920141272989554</v>
+        <v>0.2337869058618054</v>
       </c>
       <c r="K19">
-        <v>0.5814730899558356</v>
+        <v>1.455366331508202</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3640700032426878</v>
+        <v>0.5857773865177833</v>
       </c>
       <c r="N19">
-        <v>2.207145224481444</v>
+        <v>0.9994848941227872</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6294977839406783</v>
+        <v>1.465946204945453</v>
       </c>
       <c r="C20">
-        <v>0.05462849806504266</v>
+        <v>0.1829579141762281</v>
       </c>
       <c r="D20">
-        <v>0.1882208870943742</v>
+        <v>0.1954744969404203</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.040355852908974</v>
+        <v>1.427393158871197</v>
       </c>
       <c r="G20">
-        <v>1.308268310912908</v>
+        <v>1.009942743382595</v>
       </c>
       <c r="H20">
-        <v>1.217791637253768</v>
+        <v>0.6497777749339519</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2930942866962027</v>
+        <v>0.2403316510151114</v>
       </c>
       <c r="K20">
-        <v>0.5972647051623312</v>
+        <v>1.514514821018878</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3695972863058543</v>
+        <v>0.6085726568158663</v>
       </c>
       <c r="N20">
-        <v>2.200412205342005</v>
+        <v>0.9836057954976667</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6802500492735248</v>
+        <v>1.658946582792566</v>
       </c>
       <c r="C21">
-        <v>0.06116444075665584</v>
+        <v>0.2066821820458671</v>
       </c>
       <c r="D21">
-        <v>0.1933008818061239</v>
+        <v>0.2183507242943534</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.051801575092171</v>
+        <v>1.525396467236305</v>
       </c>
       <c r="G21">
-        <v>1.317051438829779</v>
+        <v>1.08058554972645</v>
       </c>
       <c r="H21">
-        <v>1.216550155909033</v>
+        <v>0.6738110272888349</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2968843140412076</v>
+        <v>0.2628345145210744</v>
       </c>
       <c r="K21">
-        <v>0.6505518748721215</v>
+        <v>1.714956510266376</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3883642939109038</v>
+        <v>0.6860186061636711</v>
       </c>
       <c r="N21">
-        <v>2.178589829324046</v>
+        <v>0.9323893276599904</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7136223873370966</v>
+        <v>1.786536416823282</v>
       </c>
       <c r="C22">
-        <v>0.06543918148186378</v>
+        <v>0.2223394559297418</v>
       </c>
       <c r="D22">
-        <v>0.1966844551555482</v>
+        <v>0.2334885672600677</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.060130213240171</v>
+        <v>1.592334490045914</v>
       </c>
       <c r="G22">
-        <v>1.323403224837676</v>
+        <v>1.129118729365899</v>
       </c>
       <c r="H22">
-        <v>1.216167483981451</v>
+        <v>0.6907642940105347</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2994811354283087</v>
+        <v>0.2779593968015206</v>
       </c>
       <c r="K22">
-        <v>0.6855477784466188</v>
+        <v>1.84740861953415</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4007751974880307</v>
+        <v>0.7373482520988475</v>
       </c>
       <c r="N22">
-        <v>2.16492424953028</v>
+        <v>0.9005910095563934</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6957924821772963</v>
+        <v>1.718295043325782</v>
       </c>
       <c r="C23">
-        <v>0.06315739236572426</v>
+        <v>0.2139674993081968</v>
       </c>
       <c r="D23">
-        <v>0.1948727922283098</v>
+        <v>0.2253909378355559</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.055607452391115</v>
+        <v>1.55632940097064</v>
       </c>
       <c r="G23">
-        <v>1.319957157610702</v>
+        <v>1.102986801267733</v>
       </c>
       <c r="H23">
-        <v>1.216332507376706</v>
+        <v>0.6815963073621418</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2980842031058017</v>
+        <v>0.2698463562331312</v>
       </c>
       <c r="K23">
-        <v>0.6668543719717661</v>
+        <v>1.776571751812071</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3941379808739427</v>
+        <v>0.7098822454467637</v>
       </c>
       <c r="N23">
-        <v>2.172163197149665</v>
+        <v>0.9174035669414096</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6286717094958192</v>
+        <v>1.462813796546214</v>
       </c>
       <c r="C24">
-        <v>0.05452172562894475</v>
+        <v>0.1825724072225796</v>
       </c>
       <c r="D24">
-        <v>0.1881389347254014</v>
+        <v>0.1951034981438511</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.040183097905299</v>
+        <v>1.425836888185756</v>
       </c>
       <c r="G24">
-        <v>1.308135068263809</v>
+        <v>1.008825326113666</v>
       </c>
       <c r="H24">
-        <v>1.21781916858663</v>
+        <v>0.64940477504868</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2930343642734954</v>
+        <v>0.239970399590689</v>
       </c>
       <c r="K24">
-        <v>0.596396638137179</v>
+        <v>1.51126066345995</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3692930151595277</v>
+        <v>0.6073178099736936</v>
       </c>
       <c r="N24">
-        <v>2.200778943828837</v>
+        <v>0.9844699704505615</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5571511750769105</v>
+        <v>1.192407259856253</v>
       </c>
       <c r="C25">
-        <v>0.04522078305845412</v>
+        <v>0.1492243221246241</v>
       </c>
       <c r="D25">
-        <v>0.1811504568678259</v>
+        <v>0.1631250596309997</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.027186992511133</v>
+        <v>1.296080754570511</v>
       </c>
       <c r="G25">
-        <v>1.29800365049438</v>
+        <v>0.916226943298895</v>
       </c>
       <c r="H25">
-        <v>1.221264494628869</v>
+        <v>0.6194968683204394</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2881020648318469</v>
+        <v>0.2093165307179135</v>
       </c>
       <c r="K25">
-        <v>0.5211337253785189</v>
+        <v>1.230200543320024</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3431223220390294</v>
+        <v>0.4992762853022796</v>
       </c>
       <c r="N25">
-        <v>2.234203217887298</v>
+        <v>1.063478216546834</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9966408491571315</v>
+        <v>2.655063260023894</v>
       </c>
       <c r="C2">
-        <v>0.1249735183385638</v>
+        <v>0.6934196105269166</v>
       </c>
       <c r="D2">
-        <v>0.140056947107027</v>
+        <v>0.07649205298389461</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.208581831596561</v>
+        <v>0.3230354737424292</v>
       </c>
       <c r="G2">
-        <v>0.8545633859090742</v>
+        <v>0.2184313701707339</v>
       </c>
       <c r="H2">
-        <v>0.6010768839165621</v>
+        <v>0.001635620649224179</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000445293199017982</v>
       </c>
       <c r="J2">
-        <v>0.1878701855359211</v>
+        <v>0.2090503414955762</v>
       </c>
       <c r="K2">
-        <v>1.026500645813599</v>
+        <v>0.2125894359996341</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4214588263898307</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.126873387703981</v>
+        <v>0.2100047747076772</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4420773246194543</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.850364588665343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8655461813040688</v>
+        <v>2.316242407491529</v>
       </c>
       <c r="C3">
-        <v>0.1086649243988518</v>
+        <v>0.6402431167881559</v>
       </c>
       <c r="D3">
-        <v>0.1246684469633976</v>
+        <v>0.06749358306998943</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.153658606964427</v>
+        <v>0.3042103631571251</v>
       </c>
       <c r="G3">
-        <v>0.8162992591610561</v>
+        <v>0.2080949563488943</v>
       </c>
       <c r="H3">
-        <v>0.5905968498284295</v>
+        <v>0.002663852126432442</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000521891048816947</v>
       </c>
       <c r="J3">
-        <v>0.1739342709154315</v>
+        <v>0.2087823663435913</v>
       </c>
       <c r="K3">
-        <v>0.8899540333388813</v>
+        <v>0.2217933121494067</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3695797301743653</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.172864504646007</v>
+        <v>0.1926554158352616</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3859225578225534</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.827601171881426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7856812982563781</v>
+        <v>2.107722687535158</v>
       </c>
       <c r="C4">
-        <v>0.09869500396884234</v>
+        <v>0.6077599772264932</v>
       </c>
       <c r="D4">
-        <v>0.1153247578963601</v>
+        <v>0.06197892626595092</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.121900233756605</v>
+        <v>0.2930992151587972</v>
       </c>
       <c r="G4">
-        <v>0.7943809430153266</v>
+        <v>0.2021218763376496</v>
       </c>
       <c r="H4">
-        <v>0.5850767294543004</v>
+        <v>0.003447125449260124</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0007382428867193092</v>
       </c>
       <c r="J4">
-        <v>0.1656417475823986</v>
+        <v>0.2088865317697142</v>
       </c>
       <c r="K4">
-        <v>0.8066987939488399</v>
+        <v>0.2277803593397714</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3380822347270538</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.202526772637636</v>
+        <v>0.1819953258802585</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.351388604899725</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8149710332772884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.753273087249994</v>
+        <v>2.022601008421134</v>
       </c>
       <c r="C5">
-        <v>0.09464061464744589</v>
+        <v>0.5953579534923392</v>
       </c>
       <c r="D5">
-        <v>0.1115413502948144</v>
+        <v>0.05979958050405543</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.109425679460514</v>
+        <v>0.2883179221123555</v>
       </c>
       <c r="G5">
-        <v>0.7858227302044583</v>
+        <v>0.1994363023138206</v>
       </c>
       <c r="H5">
-        <v>0.5830470334088034</v>
+        <v>0.003804712848230529</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0009352377170839254</v>
       </c>
       <c r="J5">
-        <v>0.1623246348726681</v>
+        <v>0.2088137403599291</v>
       </c>
       <c r="K5">
-        <v>0.7728974605534233</v>
+        <v>0.2300764215058368</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3253272519486501</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.214962449568763</v>
+        <v>0.1776350919886625</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3372991960723937</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.809047555551075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7478994491832225</v>
+        <v>2.00843523897646</v>
       </c>
       <c r="C6">
-        <v>0.09396782466660625</v>
+        <v>0.5942798642519733</v>
       </c>
       <c r="D6">
-        <v>0.1109145204119812</v>
+        <v>0.05951855571716891</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.107381753938398</v>
+        <v>0.287090158634939</v>
       </c>
       <c r="G6">
-        <v>0.7844235771856773</v>
+        <v>0.1985799589694821</v>
       </c>
       <c r="H6">
-        <v>0.5827229917661754</v>
+        <v>0.003868603242797142</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001061323883616794</v>
       </c>
       <c r="J6">
-        <v>0.161777464577618</v>
+        <v>0.2085849272790199</v>
       </c>
       <c r="K6">
-        <v>0.7672917787108986</v>
+        <v>0.2301877902010858</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3232139016128599</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.217048127640016</v>
+        <v>0.1768949189831801</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3349573888729296</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8067398048061705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.785243699778249</v>
+        <v>2.106510955653448</v>
       </c>
       <c r="C7">
-        <v>0.09864029414384845</v>
+        <v>0.6102778985165571</v>
       </c>
       <c r="D7">
-        <v>0.1152736382332762</v>
+        <v>0.06217071865392398</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.121730140052506</v>
+        <v>0.2918322741199475</v>
       </c>
       <c r="G7">
-        <v>0.7942640399325427</v>
+        <v>0.2009502189662982</v>
       </c>
       <c r="H7">
-        <v>0.5850484793729152</v>
+        <v>0.003457698639642015</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0009739800902694995</v>
       </c>
       <c r="J7">
-        <v>0.1655967656405934</v>
+        <v>0.2082838573953438</v>
       </c>
       <c r="K7">
-        <v>0.8062424549470677</v>
+        <v>0.2270636677282702</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3379099023192396</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.202693087895778</v>
+        <v>0.181893924873151</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3511948892844643</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8112237065220427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9512963822674578</v>
+        <v>2.538245834758641</v>
       </c>
       <c r="C8">
-        <v>0.1193396816703114</v>
+        <v>0.6786565055343203</v>
       </c>
       <c r="D8">
-        <v>0.134727875956159</v>
+        <v>0.0736826544257525</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.189219911348872</v>
+        <v>0.3148591436765429</v>
       </c>
       <c r="G8">
-        <v>0.8410287888467423</v>
+        <v>0.2132874890028233</v>
       </c>
       <c r="H8">
-        <v>0.5972672042315992</v>
+        <v>0.001962983155481712</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007147556677118416</v>
       </c>
       <c r="J8">
-        <v>0.1830075995327149</v>
+        <v>0.2081106437269042</v>
       </c>
       <c r="K8">
-        <v>0.9792847660384609</v>
+        <v>0.2147206242724717</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.403491249802201</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.142429542879611</v>
+        <v>0.2039711385062617</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4227193234139364</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.837393509193376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.282905861504304</v>
+        <v>3.381598882544324</v>
       </c>
       <c r="C9">
-        <v>0.1604016860425475</v>
+        <v>0.8093993756807549</v>
       </c>
       <c r="D9">
-        <v>0.1738154442416118</v>
+        <v>0.09596755079064678</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.338450306082066</v>
+        <v>0.3659984623305448</v>
       </c>
       <c r="G9">
-        <v>0.9463307014795106</v>
+        <v>0.2427224822494907</v>
       </c>
       <c r="H9">
-        <v>0.6289777544500339</v>
+        <v>0.0003124790915555176</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001300306964593823</v>
       </c>
       <c r="J9">
-        <v>0.2194532828228759</v>
+        <v>0.211077499535385</v>
       </c>
       <c r="K9">
-        <v>1.324298857373748</v>
+        <v>0.1946089251918171</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5353696862825643</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.036020600696396</v>
+        <v>0.2473312715052032</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5626447804116452</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9066871889191219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.531694572633626</v>
+        <v>4.007328211678043</v>
       </c>
       <c r="C10">
-        <v>0.1910460036718433</v>
+        <v>0.9220460855162003</v>
       </c>
       <c r="D10">
-        <v>0.2032639505495979</v>
+        <v>0.1136827383421917</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.460318439229681</v>
+        <v>0.399945505319522</v>
       </c>
       <c r="G10">
-        <v>1.033616792043958</v>
+        <v>0.260683707014806</v>
       </c>
       <c r="H10">
-        <v>0.6577361020917891</v>
+        <v>0.0001876967545273445</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002850206070626804</v>
       </c>
       <c r="J10">
-        <v>0.2479442538695622</v>
+        <v>0.2116622038335834</v>
       </c>
       <c r="K10">
-        <v>1.582811096104734</v>
+        <v>0.1780328718959918</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6349274925187345</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9657160887325205</v>
+        <v>0.2638229222335013</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6556662362452599</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9464519867047869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.646359373596653</v>
+        <v>4.359230346852144</v>
       </c>
       <c r="C11">
-        <v>0.2051364844726891</v>
+        <v>1.11094025288719</v>
       </c>
       <c r="D11">
-        <v>0.2168578596024844</v>
+        <v>0.132406948179252</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.518882458717258</v>
+        <v>0.3649805667943582</v>
       </c>
       <c r="G11">
-        <v>1.075874226360966</v>
+        <v>0.222374073179239</v>
       </c>
       <c r="H11">
-        <v>0.6721828956277847</v>
+        <v>0.01875396803255924</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003942525923510409</v>
       </c>
       <c r="J11">
-        <v>0.2613527563466675</v>
+        <v>0.1876610026589276</v>
       </c>
       <c r="K11">
-        <v>1.70188733614799</v>
+        <v>0.145344681295839</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6809602062605862</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9356122653264407</v>
+        <v>0.1602759469256583</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6147995950158389</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8151884966271155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.690026817507515</v>
+        <v>4.527265715549504</v>
       </c>
       <c r="C12">
-        <v>0.2104979628352908</v>
+        <v>1.256852381544974</v>
       </c>
       <c r="D12">
-        <v>0.2220373442876706</v>
+        <v>0.1447862285772175</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.541550928009386</v>
+        <v>0.3310043438566339</v>
       </c>
       <c r="G12">
-        <v>1.092278569870786</v>
+        <v>0.1899373698824576</v>
       </c>
       <c r="H12">
-        <v>0.6778659210431925</v>
+        <v>0.05743286129184355</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004125316637378695</v>
       </c>
       <c r="J12">
-        <v>0.2665013678272175</v>
+        <v>0.1689705147349017</v>
       </c>
       <c r="K12">
-        <v>1.747224984537098</v>
+        <v>0.1273433443317726</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.698513041187077</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9244984739818207</v>
+        <v>0.1004127115535489</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5621156251854558</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7073709621502928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.680610753913442</v>
+        <v>4.561764145929203</v>
       </c>
       <c r="C13">
-        <v>0.2093420591658628</v>
+        <v>1.380665809457298</v>
       </c>
       <c r="D13">
-        <v>0.2209203806480247</v>
+        <v>0.1532220235514785</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.536646298517837</v>
+        <v>0.2937458149199585</v>
       </c>
       <c r="G13">
-        <v>1.088727106854492</v>
+        <v>0.1581751135991141</v>
       </c>
       <c r="H13">
-        <v>0.6766322647860932</v>
+        <v>0.1131970733175791</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003913011013536583</v>
       </c>
       <c r="J13">
-        <v>0.2653892471914787</v>
+        <v>0.1522152978644087</v>
       </c>
       <c r="K13">
-        <v>1.737449202506951</v>
+        <v>0.1180698659805794</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6947270905214395</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.92687904750359</v>
+        <v>0.07032352121051222</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4976510500590621</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6049438122322499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.649946789080133</v>
+        <v>4.525244273874762</v>
       </c>
       <c r="C14">
-        <v>0.2055770361803297</v>
+        <v>1.459251552842147</v>
       </c>
       <c r="D14">
-        <v>0.2172833221690809</v>
+        <v>0.157434327057004</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.520737302571476</v>
+        <v>0.2661955362092598</v>
       </c>
       <c r="G14">
-        <v>1.077215543016337</v>
+        <v>0.1364053220174029</v>
       </c>
       <c r="H14">
-        <v>0.6726460887965828</v>
+        <v>0.1625629366046439</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003671475587698758</v>
       </c>
       <c r="J14">
-        <v>0.2617748703232792</v>
+        <v>0.1413986177138256</v>
       </c>
       <c r="K14">
-        <v>1.705612158064241</v>
+        <v>0.116056742633619</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6824017722076334</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.934692102399616</v>
+        <v>0.06679149931335537</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4478392084052487</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5360952884124828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.631197310142454</v>
+        <v>4.48727272934093</v>
       </c>
       <c r="C15">
-        <v>0.2032743287238929</v>
+        <v>1.47305453193178</v>
       </c>
       <c r="D15">
-        <v>0.2150597595650083</v>
+        <v>0.1576189863827295</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.511057905149457</v>
+        <v>0.258329523912245</v>
       </c>
       <c r="G15">
-        <v>1.070217885165292</v>
+        <v>0.1307061461327876</v>
       </c>
       <c r="H15">
-        <v>0.67023259517984</v>
+        <v>0.1750835437940168</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00363535189916675</v>
       </c>
       <c r="J15">
-        <v>0.2595704282375237</v>
+        <v>0.138913811805665</v>
       </c>
       <c r="K15">
-        <v>1.686144137418694</v>
+        <v>0.1167085255350844</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6748683945683212</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.939515545131357</v>
+        <v>0.06820368197597482</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4331308133553122</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5187779684697773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.524233623194363</v>
+        <v>4.208001560164917</v>
       </c>
       <c r="C16">
-        <v>0.1901285242197019</v>
+        <v>1.396350987785922</v>
       </c>
       <c r="D16">
-        <v>0.2023798137190198</v>
+        <v>0.1480830623022911</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.456557558209042</v>
+        <v>0.2504419294068967</v>
       </c>
       <c r="G16">
-        <v>1.030909470508178</v>
+        <v>0.1286096600513105</v>
       </c>
       <c r="H16">
-        <v>0.6568207755187956</v>
+        <v>0.1624288604889728</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003019926118794203</v>
       </c>
       <c r="J16">
-        <v>0.2470775489076402</v>
+        <v>0.1414753615824011</v>
       </c>
       <c r="K16">
-        <v>1.575061725776322</v>
+        <v>0.1244676608255584</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6319353050952614</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9677225575566197</v>
+        <v>0.06778362697608742</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4080429716143428</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5194994380927653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.459018460159513</v>
+        <v>4.013897172198369</v>
       </c>
       <c r="C17">
-        <v>0.1821052918523094</v>
+        <v>1.295619949572426</v>
       </c>
       <c r="D17">
-        <v>0.1946539969693504</v>
+        <v>0.1385570463038732</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.423952786484918</v>
+        <v>0.2589868234480619</v>
       </c>
       <c r="G17">
-        <v>1.007472718359125</v>
+        <v>0.1384281535105032</v>
       </c>
       <c r="H17">
-        <v>0.6489535973748843</v>
+        <v>0.1247157169341762</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002732430046900269</v>
       </c>
       <c r="J17">
-        <v>0.2395328717674516</v>
+        <v>0.1491666890104</v>
       </c>
       <c r="K17">
-        <v>1.50731776618656</v>
+        <v>0.1312279470733976</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6057974875089442</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9855185042334398</v>
+        <v>0.06652600021335364</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4148087049383591</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5562932498326774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.421646552763065</v>
+        <v>3.871696621335275</v>
       </c>
       <c r="C18">
-        <v>0.1775044136915369</v>
+        <v>1.165799817368708</v>
       </c>
       <c r="D18">
-        <v>0.1902286986305199</v>
+        <v>0.1279896432726275</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.40549086518547</v>
+        <v>0.2839735161961485</v>
       </c>
       <c r="G18">
-        <v>0.9942302911864402</v>
+        <v>0.1613458739012827</v>
       </c>
       <c r="H18">
-        <v>0.6445559944319399</v>
+        <v>0.07189894573873801</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002383090501643537</v>
       </c>
       <c r="J18">
-        <v>0.2352350910481817</v>
+        <v>0.162949678427033</v>
       </c>
       <c r="K18">
-        <v>1.468490154980941</v>
+        <v>0.1404924314477003</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5908327497378849</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9959300119867649</v>
+        <v>0.0795246679074566</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4507706567876753</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.633663173752268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.40901585271763</v>
+        <v>3.782410643850085</v>
       </c>
       <c r="C19">
-        <v>0.1759488985055668</v>
+        <v>1.037762001277088</v>
       </c>
       <c r="D19">
-        <v>0.1887334288895914</v>
+        <v>0.118200245155748</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.399288810582988</v>
+        <v>0.319533777090129</v>
       </c>
       <c r="G19">
-        <v>0.9897864326168531</v>
+        <v>0.1932881393784669</v>
       </c>
       <c r="H19">
-        <v>0.6430884509092323</v>
+        <v>0.02656097469434826</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002518905717865394</v>
       </c>
       <c r="J19">
-        <v>0.2337869058618054</v>
+        <v>0.1805167562745567</v>
       </c>
       <c r="K19">
-        <v>1.455366331508202</v>
+        <v>0.1543014130775822</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5857773865177833</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9994848941227872</v>
+        <v>0.1255635725673372</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5095286388499005</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7381362487700187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.465946204945453</v>
+        <v>3.843179621735601</v>
       </c>
       <c r="C20">
-        <v>0.1829579141762281</v>
+        <v>0.9018258508489225</v>
       </c>
       <c r="D20">
-        <v>0.1954744969404203</v>
+        <v>0.1097838057300891</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.427393158871197</v>
+        <v>0.3868762224602946</v>
       </c>
       <c r="G20">
-        <v>1.009942743382595</v>
+        <v>0.2520860347073963</v>
       </c>
       <c r="H20">
-        <v>0.6497777749339519</v>
+        <v>0.0001440421379159673</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003095791132505354</v>
       </c>
       <c r="J20">
-        <v>0.2403316510151114</v>
+        <v>0.2094606690285659</v>
       </c>
       <c r="K20">
-        <v>1.514514821018878</v>
+        <v>0.1799690679653327</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6085726568158663</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9836057954976667</v>
+        <v>0.2587182507336223</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.630830898982417</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9234961861948676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.658946582792566</v>
+        <v>4.311496344937041</v>
       </c>
       <c r="C21">
-        <v>0.2066821820458671</v>
+        <v>0.9654063332906162</v>
       </c>
       <c r="D21">
-        <v>0.2183507242943534</v>
+        <v>0.1215426359954108</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.525396467236305</v>
+        <v>0.4236692324734008</v>
       </c>
       <c r="G21">
-        <v>1.08058554972645</v>
+        <v>0.2758684946898029</v>
       </c>
       <c r="H21">
-        <v>0.6738110272888349</v>
+        <v>9.496466138780857E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004536945869567433</v>
       </c>
       <c r="J21">
-        <v>0.2628345145210744</v>
+        <v>0.2152133169429007</v>
       </c>
       <c r="K21">
-        <v>1.714956510266376</v>
+        <v>0.173519947798134</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6860186061636711</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9323893276599904</v>
+        <v>0.2953340457875555</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7172354221359711</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.986304092466213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.786536416823282</v>
+        <v>4.621478010316821</v>
       </c>
       <c r="C22">
-        <v>0.2223394559297418</v>
+        <v>1.010703535803714</v>
       </c>
       <c r="D22">
-        <v>0.2334885672600677</v>
+        <v>0.1295332749577653</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.592334490045914</v>
+        <v>0.4469550216967022</v>
       </c>
       <c r="G22">
-        <v>1.129118729365899</v>
+        <v>0.2906468433815661</v>
       </c>
       <c r="H22">
-        <v>0.6907642940105347</v>
+        <v>0.0003484376752147522</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005410587356217356</v>
       </c>
       <c r="J22">
-        <v>0.2779593968015206</v>
+        <v>0.2186177521519426</v>
       </c>
       <c r="K22">
-        <v>1.84740861953415</v>
+        <v>0.1689093193869038</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7373482520988475</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9005910095563934</v>
+        <v>0.3114774575725221</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7688163247361572</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.024980661890055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.718295043325782</v>
+        <v>4.456115341974282</v>
       </c>
       <c r="C23">
-        <v>0.2139674993081968</v>
+        <v>0.9831218145326659</v>
       </c>
       <c r="D23">
-        <v>0.2253909378355559</v>
+        <v>0.124993548345671</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.55632940097064</v>
+        <v>0.4358707383768987</v>
       </c>
       <c r="G23">
-        <v>1.102986801267733</v>
+        <v>0.2840265234850747</v>
       </c>
       <c r="H23">
-        <v>0.6815963073621418</v>
+        <v>0.0001949644206131751</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004644034126866536</v>
       </c>
       <c r="J23">
-        <v>0.2698463562331312</v>
+        <v>0.2174559948689847</v>
       </c>
       <c r="K23">
-        <v>1.776571751812071</v>
+        <v>0.1721406996921484</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7098822454467637</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9174035669414096</v>
+        <v>0.3028942497182356</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7412908320812903</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.008397044806543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.462813796546214</v>
+        <v>3.829719819586217</v>
       </c>
       <c r="C24">
-        <v>0.1825724072225796</v>
+        <v>0.8845920217196976</v>
       </c>
       <c r="D24">
-        <v>0.1951034981438511</v>
+        <v>0.1082895836623976</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.425836888185756</v>
+        <v>0.3930153750687211</v>
       </c>
       <c r="G24">
-        <v>1.008825326113666</v>
+        <v>0.2580209795430619</v>
       </c>
       <c r="H24">
-        <v>0.64940477504868</v>
+        <v>1.830192232310512E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002637660286877619</v>
       </c>
       <c r="J24">
-        <v>0.239970399590689</v>
+        <v>0.2126650371260723</v>
       </c>
       <c r="K24">
-        <v>1.51126066345995</v>
+        <v>0.1839439148628248</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6073178099736936</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9844699704505615</v>
+        <v>0.270419008988398</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6371085062917317</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9427819387538392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.192407259856253</v>
+        <v>3.153619731488106</v>
       </c>
       <c r="C25">
-        <v>0.1492243221246241</v>
+        <v>0.7788692768534418</v>
       </c>
       <c r="D25">
-        <v>0.1631250596309997</v>
+        <v>0.09033247902888775</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.296080754570511</v>
+        <v>0.3495472848598666</v>
       </c>
       <c r="G25">
-        <v>0.916226943298895</v>
+        <v>0.2323405434256998</v>
       </c>
       <c r="H25">
-        <v>0.6194968683204394</v>
+        <v>0.0006130397593252512</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00137157603473792</v>
       </c>
       <c r="J25">
-        <v>0.2093165307179135</v>
+        <v>0.2089511851275674</v>
       </c>
       <c r="K25">
-        <v>1.230200543320024</v>
+        <v>0.1984450976820149</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4992762853022796</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.063478216546834</v>
+        <v>0.2355277630822599</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5248031124949009</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8800478242594636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.655063260023894</v>
+        <v>2.659346484694311</v>
       </c>
       <c r="C2">
-        <v>0.6934196105269166</v>
+        <v>0.6927782899025487</v>
       </c>
       <c r="D2">
-        <v>0.07649205298389461</v>
+        <v>0.07814210493572205</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3230354737424292</v>
+        <v>0.3129342475945762</v>
       </c>
       <c r="G2">
-        <v>0.2184313701707339</v>
+        <v>0.192192657190958</v>
       </c>
       <c r="H2">
-        <v>0.001635620649224179</v>
+        <v>0.001411186365929351</v>
       </c>
       <c r="I2">
-        <v>0.000445293199017982</v>
+        <v>0.0005712382410854033</v>
       </c>
       <c r="J2">
-        <v>0.2090503414955762</v>
+        <v>0.2440136885152526</v>
       </c>
       <c r="K2">
-        <v>0.2125894359996341</v>
+        <v>0.2010200362072414</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1158586324412898</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04469208327899654</v>
       </c>
       <c r="N2">
-        <v>0.2100047747076772</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4420773246194543</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2124975316336872</v>
       </c>
       <c r="Q2">
-        <v>0.850364588665343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4423856579551426</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8186657635430237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.316242407491529</v>
+        <v>2.321218483382211</v>
       </c>
       <c r="C3">
-        <v>0.6402431167881559</v>
+        <v>0.6314610456772414</v>
       </c>
       <c r="D3">
-        <v>0.06749358306998943</v>
+        <v>0.06850233103492798</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3042103631571251</v>
+        <v>0.2962937541280724</v>
       </c>
       <c r="G3">
-        <v>0.2080949563488943</v>
+        <v>0.1836104157841874</v>
       </c>
       <c r="H3">
-        <v>0.002663852126432442</v>
+        <v>0.002304468671048499</v>
       </c>
       <c r="I3">
-        <v>0.000521891048816947</v>
+        <v>0.0005258009923485574</v>
       </c>
       <c r="J3">
-        <v>0.2087823663435913</v>
+        <v>0.243118799348089</v>
       </c>
       <c r="K3">
-        <v>0.2217933121494067</v>
+        <v>0.2104545489059291</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1215431057405993</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0473443895750103</v>
       </c>
       <c r="N3">
-        <v>0.1926554158352616</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3859225578225534</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1957622506767223</v>
       </c>
       <c r="Q3">
-        <v>0.827601171881426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3862387476367317</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8016301293144465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.107722687535158</v>
+        <v>2.113061955230307</v>
       </c>
       <c r="C4">
-        <v>0.6077599772264932</v>
+        <v>0.5941633012483862</v>
       </c>
       <c r="D4">
-        <v>0.06197892626595092</v>
+        <v>0.06260735714931087</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2930992151587972</v>
+        <v>0.2864227678928088</v>
       </c>
       <c r="G4">
-        <v>0.2021218763376496</v>
+        <v>0.1786996047050167</v>
       </c>
       <c r="H4">
-        <v>0.003447125449260124</v>
+        <v>0.002985718463152764</v>
       </c>
       <c r="I4">
-        <v>0.0007382428867193092</v>
+        <v>0.0006431341312831407</v>
       </c>
       <c r="J4">
-        <v>0.2088865317697142</v>
+        <v>0.242680747331697</v>
       </c>
       <c r="K4">
-        <v>0.2277803593397714</v>
+        <v>0.2165242474795495</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1252709383657464</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04945029399733691</v>
       </c>
       <c r="N4">
-        <v>0.1819953258802585</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.351388604899725</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1854875920712402</v>
       </c>
       <c r="Q4">
-        <v>0.8149710332772884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3516964537535117</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7922045203554831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.022601008421134</v>
+        <v>2.028073715225446</v>
       </c>
       <c r="C5">
-        <v>0.5953579534923392</v>
+        <v>0.5798469034989182</v>
       </c>
       <c r="D5">
-        <v>0.05979958050405543</v>
+        <v>0.06027536567183489</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2883179221123555</v>
+        <v>0.2821341707365477</v>
       </c>
       <c r="G5">
-        <v>0.1994363023138206</v>
+        <v>0.1764599842536043</v>
       </c>
       <c r="H5">
-        <v>0.003804712848230529</v>
+        <v>0.003296997037958438</v>
       </c>
       <c r="I5">
-        <v>0.0009352377170839254</v>
+        <v>0.0008066255016530022</v>
       </c>
       <c r="J5">
-        <v>0.2088137403599291</v>
+        <v>0.2423480068078305</v>
       </c>
       <c r="K5">
-        <v>0.2300764215058368</v>
+        <v>0.2188540881671113</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1267211045726988</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05039573135696074</v>
       </c>
       <c r="N5">
-        <v>0.1776350919886625</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3372991960723937</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1812864890489223</v>
       </c>
       <c r="Q5">
-        <v>0.809047555551075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3376006735107069</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.7875515104891093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.00843523897646</v>
+        <v>2.013928263764228</v>
       </c>
       <c r="C6">
-        <v>0.5942798642519733</v>
+        <v>0.5784557981853879</v>
       </c>
       <c r="D6">
-        <v>0.05951855571716891</v>
+        <v>0.05996793171510006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.287090158634939</v>
+        <v>0.2810016021425881</v>
       </c>
       <c r="G6">
-        <v>0.1985799589694821</v>
+        <v>0.1756988182957286</v>
       </c>
       <c r="H6">
-        <v>0.003868603242797142</v>
+        <v>0.00335275326198442</v>
       </c>
       <c r="I6">
-        <v>0.001061323883616794</v>
+        <v>0.0009436877080020167</v>
       </c>
       <c r="J6">
-        <v>0.2085849272790199</v>
+        <v>0.2420728728862258</v>
       </c>
       <c r="K6">
-        <v>0.2301877902010858</v>
+        <v>0.2189882100433778</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1268095596663095</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05052106933378475</v>
       </c>
       <c r="N6">
-        <v>0.1768949189831801</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3349573888729296</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.180572623741547</v>
       </c>
       <c r="Q6">
-        <v>0.8067398048061705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3352576255898327</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7855007391926421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.106510955653448</v>
+        <v>2.111819646151275</v>
       </c>
       <c r="C7">
-        <v>0.6102778985165571</v>
+        <v>0.5962396486735031</v>
       </c>
       <c r="D7">
-        <v>0.06217071865392398</v>
+        <v>0.06292945419023965</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2918322741199475</v>
+        <v>0.284518142645581</v>
       </c>
       <c r="G7">
-        <v>0.2009502189662982</v>
+        <v>0.1796735273119339</v>
       </c>
       <c r="H7">
-        <v>0.003457698639642015</v>
+        <v>0.00299768255120042</v>
       </c>
       <c r="I7">
-        <v>0.0009739800902694995</v>
+        <v>0.0009228848124473998</v>
       </c>
       <c r="J7">
-        <v>0.2082838573953438</v>
+        <v>0.2388370605349124</v>
       </c>
       <c r="K7">
-        <v>0.2270636677282702</v>
+        <v>0.2156335467849892</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1247464075127258</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04930639606300025</v>
       </c>
       <c r="N7">
-        <v>0.181893924873151</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3511948892844643</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1853684482637235</v>
       </c>
       <c r="Q7">
-        <v>0.8112237065220427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3515009407102596</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7865609780506304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.538245834758641</v>
+        <v>2.542679288915622</v>
       </c>
       <c r="C8">
-        <v>0.6786565055343203</v>
+        <v>0.6737860508960125</v>
       </c>
       <c r="D8">
-        <v>0.0736826544257525</v>
+        <v>0.07556324481333121</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3148591436765429</v>
+        <v>0.3033215651324923</v>
       </c>
       <c r="G8">
-        <v>0.2132874890028233</v>
+        <v>0.1947116898761649</v>
       </c>
       <c r="H8">
-        <v>0.001962983155481712</v>
+        <v>0.001701350192767292</v>
       </c>
       <c r="I8">
-        <v>0.0007147556677118416</v>
+        <v>0.0008583047916763675</v>
       </c>
       <c r="J8">
-        <v>0.2081106437269042</v>
+        <v>0.2324183476715334</v>
       </c>
       <c r="K8">
-        <v>0.2147206242724717</v>
+        <v>0.2026063582106481</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1169292902653876</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04512412522120801</v>
       </c>
       <c r="N8">
-        <v>0.2039711385062617</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4227193234139364</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2066140776938425</v>
       </c>
       <c r="Q8">
-        <v>0.837393509193376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4230264144725595</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.801172781257975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.381598882544324</v>
+        <v>3.383836354649702</v>
       </c>
       <c r="C9">
-        <v>0.8093993756807549</v>
+        <v>0.8254514979286114</v>
       </c>
       <c r="D9">
-        <v>0.09596755079064678</v>
+        <v>0.09966499203142121</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3659984623305448</v>
+        <v>0.3477420747416744</v>
       </c>
       <c r="G9">
-        <v>0.2427224822494907</v>
+        <v>0.2215882470624564</v>
       </c>
       <c r="H9">
-        <v>0.0003124790915555176</v>
+        <v>0.0002682191696922187</v>
       </c>
       <c r="I9">
-        <v>0.001300306964593823</v>
+        <v>0.001542201811604471</v>
       </c>
       <c r="J9">
-        <v>0.211077499535385</v>
+        <v>0.2331709965233628</v>
       </c>
       <c r="K9">
-        <v>0.1946089251918171</v>
+        <v>0.1813668232055008</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1045871258926869</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04120275902397452</v>
       </c>
       <c r="N9">
-        <v>0.2473312715052032</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5626447804116452</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2484717315458482</v>
       </c>
       <c r="Q9">
-        <v>0.9066871889191219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5628384952675773</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8523617175224132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.007328211678043</v>
+        <v>4.007305332195529</v>
       </c>
       <c r="C10">
-        <v>0.9220460855162003</v>
+        <v>0.950925022390436</v>
       </c>
       <c r="D10">
-        <v>0.1136827383421917</v>
+        <v>0.1195231302532136</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.399945505319522</v>
+        <v>0.3730899566474122</v>
       </c>
       <c r="G10">
-        <v>0.260683707014806</v>
+        <v>0.2509824470317028</v>
       </c>
       <c r="H10">
-        <v>0.0001876967545273445</v>
+        <v>0.0001877074871581286</v>
       </c>
       <c r="I10">
-        <v>0.002850206070626804</v>
+        <v>0.003024869010492814</v>
       </c>
       <c r="J10">
-        <v>0.2116622038335834</v>
+        <v>0.2149251939893446</v>
       </c>
       <c r="K10">
-        <v>0.1780328718959918</v>
+        <v>0.1633472344386071</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09533890602513928</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03908808395775232</v>
       </c>
       <c r="N10">
-        <v>0.2638229222335013</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6556662362452599</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2638124301818152</v>
       </c>
       <c r="Q10">
-        <v>0.9464519867047869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6556640738045871</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8682827888560922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.359230346852144</v>
+        <v>4.358002338749259</v>
       </c>
       <c r="C11">
-        <v>1.11094025288719</v>
+        <v>1.13101712398938</v>
       </c>
       <c r="D11">
-        <v>0.132406948179252</v>
+        <v>0.1399240447666585</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3649805667943582</v>
+        <v>0.3350427565595098</v>
       </c>
       <c r="G11">
-        <v>0.222374073179239</v>
+        <v>0.2439495443805697</v>
       </c>
       <c r="H11">
-        <v>0.01875396803255924</v>
+        <v>0.01875624067189108</v>
       </c>
       <c r="I11">
-        <v>0.003942525923510409</v>
+        <v>0.004131647801056459</v>
       </c>
       <c r="J11">
-        <v>0.1876610026589276</v>
+        <v>0.1670901037605503</v>
       </c>
       <c r="K11">
-        <v>0.145344681295839</v>
+        <v>0.1352102657861431</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08529572919031869</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02929584850984046</v>
       </c>
       <c r="N11">
-        <v>0.1602759469256583</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6147995950158389</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1597724952351669</v>
       </c>
       <c r="Q11">
-        <v>0.8151884966271155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6146971612225869</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7318364396012385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.527265715549504</v>
+        <v>4.525594184954628</v>
       </c>
       <c r="C12">
-        <v>1.256852381544974</v>
+        <v>1.265180108348403</v>
       </c>
       <c r="D12">
-        <v>0.1447862285772175</v>
+        <v>0.1527158530782629</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3310043438566339</v>
+        <v>0.302721975141381</v>
       </c>
       <c r="G12">
-        <v>0.1899373698824576</v>
+        <v>0.2255849565100121</v>
       </c>
       <c r="H12">
-        <v>0.05743286129184355</v>
+        <v>0.05743957799593602</v>
       </c>
       <c r="I12">
-        <v>0.004125316637378695</v>
+        <v>0.004277346069054389</v>
       </c>
       <c r="J12">
-        <v>0.1689705147349017</v>
+        <v>0.145507093243225</v>
       </c>
       <c r="K12">
-        <v>0.1273433443317726</v>
+        <v>0.1214254589679014</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08130652957339157</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.023445604187323</v>
       </c>
       <c r="N12">
-        <v>0.1004127115535489</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5621156251854558</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09977558662292196</v>
       </c>
       <c r="Q12">
-        <v>0.7073709621502928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5619930370598993</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6317438941632929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.561764145929203</v>
+        <v>4.560331096587731</v>
       </c>
       <c r="C13">
-        <v>1.380665809457298</v>
+        <v>1.37613194337456</v>
       </c>
       <c r="D13">
-        <v>0.1532220235514785</v>
+        <v>0.1600505911955992</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2937458149199585</v>
+        <v>0.2720230417051752</v>
       </c>
       <c r="G13">
-        <v>0.1581751135991141</v>
+        <v>0.1913354286770641</v>
       </c>
       <c r="H13">
-        <v>0.1131970733175791</v>
+        <v>0.1132076166711755</v>
       </c>
       <c r="I13">
-        <v>0.003913011013536583</v>
+        <v>0.004078384147486069</v>
       </c>
       <c r="J13">
-        <v>0.1522152978644087</v>
+        <v>0.1391466143460676</v>
       </c>
       <c r="K13">
-        <v>0.1180698659805794</v>
+        <v>0.1158314534283746</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08020285645965464</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02012370764913074</v>
       </c>
       <c r="N13">
-        <v>0.07032352121051222</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4976510500590621</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06980273381041435</v>
       </c>
       <c r="Q13">
-        <v>0.6049438122322499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4975606116220916</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5496872502926351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.525244273874762</v>
+        <v>4.524275234936226</v>
       </c>
       <c r="C14">
-        <v>1.459251552842147</v>
+        <v>1.445060682639735</v>
       </c>
       <c r="D14">
-        <v>0.157434327057004</v>
+        <v>0.1627656980167842</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2661955362092598</v>
+        <v>0.2508484791062386</v>
       </c>
       <c r="G14">
-        <v>0.1364053220174029</v>
+        <v>0.1617597854350947</v>
       </c>
       <c r="H14">
-        <v>0.1625629366046439</v>
+        <v>0.1625727958091971</v>
       </c>
       <c r="I14">
-        <v>0.003671475587698758</v>
+        <v>0.003881850162994027</v>
       </c>
       <c r="J14">
-        <v>0.1413986177138256</v>
+        <v>0.1396496184681766</v>
       </c>
       <c r="K14">
-        <v>0.116056742633619</v>
+        <v>0.1155626367786233</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08046837891443515</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0191724579296404</v>
       </c>
       <c r="N14">
-        <v>0.06679149931335537</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4478392084052487</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06644681631942273</v>
       </c>
       <c r="Q14">
-        <v>0.5360952884124828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4477851281239182</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4990602168052618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.48727272934093</v>
+        <v>4.486562494651821</v>
       </c>
       <c r="C15">
-        <v>1.47305453193178</v>
+        <v>1.456606411766813</v>
       </c>
       <c r="D15">
-        <v>0.1576189863827295</v>
+        <v>0.1622887504195774</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.258329523912245</v>
+        <v>0.2453554593502645</v>
       </c>
       <c r="G15">
-        <v>0.1307061461327876</v>
+        <v>0.151808093863913</v>
       </c>
       <c r="H15">
-        <v>0.1750835437940168</v>
+        <v>0.1750917298240893</v>
       </c>
       <c r="I15">
-        <v>0.00363535189916675</v>
+        <v>0.003889018702821545</v>
       </c>
       <c r="J15">
-        <v>0.138913811805665</v>
+        <v>0.1418463144290243</v>
       </c>
       <c r="K15">
-        <v>0.1167085255350844</v>
+        <v>0.1164489010422018</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08073827925764565</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01929729767022492</v>
       </c>
       <c r="N15">
-        <v>0.06820368197597482</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4331308133553122</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06795104096821269</v>
       </c>
       <c r="Q15">
-        <v>0.5187779684697773</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4330925803203698</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4881335004862137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.208001560164917</v>
+        <v>4.208630329200389</v>
       </c>
       <c r="C16">
-        <v>1.396350987785922</v>
+        <v>1.381990923908631</v>
       </c>
       <c r="D16">
-        <v>0.1480830623022911</v>
+        <v>0.1504206644304986</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2504419294068967</v>
+        <v>0.2445269898367215</v>
       </c>
       <c r="G16">
-        <v>0.1286096600513105</v>
+        <v>0.1305151461210983</v>
       </c>
       <c r="H16">
-        <v>0.1624288604889728</v>
+        <v>0.1624166289905418</v>
       </c>
       <c r="I16">
-        <v>0.003019926118794203</v>
+        <v>0.003379332716836103</v>
       </c>
       <c r="J16">
-        <v>0.1414753615824011</v>
+        <v>0.1633138664625342</v>
       </c>
       <c r="K16">
-        <v>0.1244676608255584</v>
+        <v>0.1234531774315664</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08219295093640344</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02175411784298847</v>
       </c>
       <c r="N16">
-        <v>0.06778362697608742</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4080429716143428</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.068018835628612</v>
       </c>
       <c r="Q16">
-        <v>0.5194994380927653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4080754781504865</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.506449362309354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.013897172198369</v>
+        <v>4.015221763954401</v>
       </c>
       <c r="C17">
-        <v>1.295619949572426</v>
+        <v>1.287102960753032</v>
       </c>
       <c r="D17">
-        <v>0.1385570463038732</v>
+        <v>0.1402613419259779</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2589868234480619</v>
+        <v>0.2545681793180705</v>
       </c>
       <c r="G17">
-        <v>0.1384281535105032</v>
+        <v>0.1313967387402002</v>
       </c>
       <c r="H17">
-        <v>0.1247157169341762</v>
+        <v>0.124683492869238</v>
       </c>
       <c r="I17">
-        <v>0.002732430046900269</v>
+        <v>0.003140113169571634</v>
       </c>
       <c r="J17">
-        <v>0.1491666890104</v>
+        <v>0.1796224515000873</v>
       </c>
       <c r="K17">
-        <v>0.1312279470733976</v>
+        <v>0.1293360743994971</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0837627165124013</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02392579208879209</v>
       </c>
       <c r="N17">
-        <v>0.06652600021335364</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4148087049383591</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.067047432345269</v>
       </c>
       <c r="Q17">
-        <v>0.5562932498326774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.414880300738389</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5463942542013456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.871696621335275</v>
+        <v>3.873330520851596</v>
       </c>
       <c r="C18">
-        <v>1.165799817368708</v>
+        <v>1.167111293815992</v>
       </c>
       <c r="D18">
-        <v>0.1279896432726275</v>
+        <v>0.1299984973529007</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2839735161961485</v>
+        <v>0.2776059172722896</v>
       </c>
       <c r="G18">
-        <v>0.1613458739012827</v>
+        <v>0.148155469221642</v>
       </c>
       <c r="H18">
-        <v>0.07189894573873801</v>
+        <v>0.0718574341813536</v>
       </c>
       <c r="I18">
-        <v>0.002383090501643537</v>
+        <v>0.002759835363776553</v>
       </c>
       <c r="J18">
-        <v>0.162949678427033</v>
+        <v>0.1962279918716163</v>
       </c>
       <c r="K18">
-        <v>0.1404924314477003</v>
+        <v>0.1370567407187995</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08646349825259647</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02673082035686569</v>
       </c>
       <c r="N18">
-        <v>0.0795246679074566</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4507706567876753</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08020614242477997</v>
       </c>
       <c r="Q18">
-        <v>0.633663173752268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4508705516859308</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6175526207491089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.782410643850085</v>
+        <v>3.784030807784291</v>
       </c>
       <c r="C19">
-        <v>1.037762001277088</v>
+        <v>1.050088959036202</v>
       </c>
       <c r="D19">
-        <v>0.118200245155748</v>
+        <v>0.1209928199076842</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.319533777090129</v>
+        <v>0.3088586568326406</v>
       </c>
       <c r="G19">
-        <v>0.1932881393784669</v>
+        <v>0.1747747574410852</v>
       </c>
       <c r="H19">
-        <v>0.02656097469434826</v>
+        <v>0.02652608716187643</v>
       </c>
       <c r="I19">
-        <v>0.002518905717865394</v>
+        <v>0.002920812213632829</v>
       </c>
       <c r="J19">
-        <v>0.1805167562745567</v>
+        <v>0.2129068789990995</v>
       </c>
       <c r="K19">
-        <v>0.1543014130775822</v>
+        <v>0.1480849731027432</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09065347732643536</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0308123267048046</v>
       </c>
       <c r="N19">
-        <v>0.1255635725673372</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5095286388499005</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1262812553645816</v>
       </c>
       <c r="Q19">
-        <v>0.7381362487700187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5096455077419222</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7088305415941676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.843179621735601</v>
+        <v>3.843911078326812</v>
       </c>
       <c r="C20">
-        <v>0.9018258508489225</v>
+        <v>0.929054868528425</v>
       </c>
       <c r="D20">
-        <v>0.1097838057300891</v>
+        <v>0.1145327735149664</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3868762224602946</v>
+        <v>0.3650023657149788</v>
       </c>
       <c r="G20">
-        <v>0.2520860347073963</v>
+        <v>0.2318372141952239</v>
       </c>
       <c r="H20">
-        <v>0.0001440421379159673</v>
+        <v>0.0001402089215760682</v>
       </c>
       <c r="I20">
-        <v>0.003095791132505354</v>
+        <v>0.003468616815390568</v>
       </c>
       <c r="J20">
-        <v>0.2094606690285659</v>
+        <v>0.2282219756624002</v>
       </c>
       <c r="K20">
-        <v>0.1799690679653327</v>
+        <v>0.1667120960534145</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09718451708807141</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03902871474131508</v>
       </c>
       <c r="N20">
-        <v>0.2587182507336223</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.630830898982417</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2590626909227396</v>
       </c>
       <c r="Q20">
-        <v>0.9234961861948676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6308986096946114</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8597672101279272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.311496344937041</v>
+        <v>4.309636130198669</v>
       </c>
       <c r="C21">
-        <v>0.9654063332906162</v>
+        <v>0.9958281172827128</v>
       </c>
       <c r="D21">
-        <v>0.1215426359954108</v>
+        <v>0.1309009970630939</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4236692324734008</v>
+        <v>0.3807794868620391</v>
       </c>
       <c r="G21">
-        <v>0.2758684946898029</v>
+        <v>0.3066597366045016</v>
       </c>
       <c r="H21">
-        <v>9.496466138780857E-05</v>
+        <v>7.782623836949387E-05</v>
       </c>
       <c r="I21">
-        <v>0.004536945869567433</v>
+        <v>0.004716093543770228</v>
       </c>
       <c r="J21">
-        <v>0.2152133169429007</v>
+        <v>0.1720342307307803</v>
       </c>
       <c r="K21">
-        <v>0.173519947798134</v>
+        <v>0.1542574175790659</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09103445001020205</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03825340548559275</v>
       </c>
       <c r="N21">
-        <v>0.2953340457875555</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7172354221359711</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2945116696094914</v>
       </c>
       <c r="Q21">
-        <v>0.986304092466213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7170483576806461</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8615764537695014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.621478010316821</v>
+        <v>4.617771641771981</v>
       </c>
       <c r="C22">
-        <v>1.010703535803714</v>
+        <v>1.042112697608673</v>
       </c>
       <c r="D22">
-        <v>0.1295332749577653</v>
+        <v>0.1421806094922857</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4469550216967022</v>
+        <v>0.3893723566815837</v>
       </c>
       <c r="G22">
-        <v>0.2906468433815661</v>
+        <v>0.3625686205739385</v>
       </c>
       <c r="H22">
-        <v>0.0003484376752147522</v>
+        <v>0.0002860435845963849</v>
       </c>
       <c r="I22">
-        <v>0.005410587356217356</v>
+        <v>0.005345901859130642</v>
       </c>
       <c r="J22">
-        <v>0.2186177521519426</v>
+        <v>0.142209478330571</v>
       </c>
       <c r="K22">
-        <v>0.1689093193869038</v>
+        <v>0.1456820608239706</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0871399296584503</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03773145980974313</v>
       </c>
       <c r="N22">
-        <v>0.3114774575725221</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7688163247361572</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3099069025901287</v>
       </c>
       <c r="Q22">
-        <v>1.024980661890055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7684295624428685</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8578690313009645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.456115341974282</v>
+        <v>4.453482075246598</v>
       </c>
       <c r="C23">
-        <v>0.9831218145326659</v>
+        <v>1.015065708764752</v>
       </c>
       <c r="D23">
-        <v>0.124993548345671</v>
+        <v>0.1354732875706475</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4358707383768987</v>
+        <v>0.3878319609009395</v>
       </c>
       <c r="G23">
-        <v>0.2840265234850747</v>
+        <v>0.3271607780581718</v>
       </c>
       <c r="H23">
-        <v>0.0001949644206131751</v>
+        <v>0.0001609314095698533</v>
       </c>
       <c r="I23">
-        <v>0.004644034126866536</v>
+        <v>0.004657143272749131</v>
       </c>
       <c r="J23">
-        <v>0.2174559948689847</v>
+        <v>0.1622874144763031</v>
       </c>
       <c r="K23">
-        <v>0.1721406996921484</v>
+        <v>0.1513405602110964</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08951471976249437</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03849713459548987</v>
       </c>
       <c r="N23">
-        <v>0.3028942497182356</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7412908320812903</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3017533852965641</v>
       </c>
       <c r="Q23">
-        <v>1.008397044806543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7410213470391298</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8687276573112115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.829719819586217</v>
+        <v>3.830456046614643</v>
       </c>
       <c r="C24">
-        <v>0.8845920217196976</v>
+        <v>0.9122890807169028</v>
       </c>
       <c r="D24">
-        <v>0.1082895836623976</v>
+        <v>0.113071692116435</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3930153750687211</v>
+        <v>0.3705821895300474</v>
       </c>
       <c r="G24">
-        <v>0.2580209795430619</v>
+        <v>0.2366963162645987</v>
       </c>
       <c r="H24">
-        <v>1.830192232310512E-05</v>
+        <v>1.507912237941333E-05</v>
       </c>
       <c r="I24">
-        <v>0.002637660286877619</v>
+        <v>0.002910335744957138</v>
       </c>
       <c r="J24">
-        <v>0.2126650371260723</v>
+        <v>0.2315568427930828</v>
       </c>
       <c r="K24">
-        <v>0.1839439148628248</v>
+        <v>0.1699699098680423</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09839516847100782</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04025999454531615</v>
       </c>
       <c r="N24">
-        <v>0.270419008988398</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6371085062917317</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2707681988645874</v>
       </c>
       <c r="Q24">
-        <v>0.9427819387538392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6371775715268484</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.877093502454585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.153619731488106</v>
+        <v>3.156571960213171</v>
       </c>
       <c r="C25">
-        <v>0.7788692768534418</v>
+        <v>0.7898329954544465</v>
       </c>
       <c r="D25">
-        <v>0.09033247902888775</v>
+        <v>0.09332521628613932</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3495472848598666</v>
+        <v>0.3342869105659787</v>
       </c>
       <c r="G25">
-        <v>0.2323405434256998</v>
+        <v>0.2089945103629915</v>
       </c>
       <c r="H25">
-        <v>0.0006130397593252512</v>
+        <v>0.0005275110291473872</v>
       </c>
       <c r="I25">
-        <v>0.00137157603473792</v>
+        <v>0.001697806371745436</v>
       </c>
       <c r="J25">
-        <v>0.2089511851275674</v>
+        <v>0.2362471371740327</v>
       </c>
       <c r="K25">
-        <v>0.1984450976820149</v>
+        <v>0.1860187253411461</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1073624963350888</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04157109613098253</v>
       </c>
       <c r="N25">
-        <v>0.2355277630822599</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5248031124949009</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2370933928138399</v>
       </c>
       <c r="Q25">
-        <v>0.8800478242594636</v>
+        <v>0.5250466267599947</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8342026502255351</v>
       </c>
     </row>
   </sheetData>
